--- a/Data_Moities/Bolt_Field_Data_May132020.xlsx
+++ b/Data_Moities/Bolt_Field_Data_May132020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhonor/Documents/R/masters_thesis/Synthesis/Data_Moities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1325AE30-8EA9-0A4A-BF60-99DC37BAB464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D2098F-7B8B-904C-956E-C7AF612FB6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A8DB64A3-4E12-BA4A-A58D-23C912D9DA77}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="88">
   <si>
     <t>jbc</t>
   </si>
@@ -204,6 +204,99 @@
   </si>
   <si>
     <t>i161</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>Liisa</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>i142</t>
+  </si>
+  <si>
+    <t>i163</t>
+  </si>
+  <si>
+    <t>i114</t>
+  </si>
+  <si>
+    <t>i151</t>
+  </si>
+  <si>
+    <t>lge</t>
+  </si>
+  <si>
+    <t>i123</t>
+  </si>
+  <si>
+    <t>i139</t>
+  </si>
+  <si>
+    <t>bsg</t>
+  </si>
+  <si>
+    <t>i135</t>
+  </si>
+  <si>
+    <t>i116</t>
+  </si>
+  <si>
+    <t>i137</t>
+  </si>
+  <si>
+    <t>i109</t>
+  </si>
+  <si>
+    <t>i157</t>
+  </si>
+  <si>
+    <t>pdb</t>
+  </si>
+  <si>
+    <t>nsr</t>
+  </si>
+  <si>
+    <t>i144</t>
+  </si>
+  <si>
+    <t>i145</t>
+  </si>
+  <si>
+    <t>jrf</t>
+  </si>
+  <si>
+    <t>i122</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>i146</t>
+  </si>
+  <si>
+    <t>i150</t>
+  </si>
+  <si>
+    <t>i119</t>
+  </si>
+  <si>
+    <t>i310</t>
+  </si>
+  <si>
+    <t>i117</t>
+  </si>
+  <si>
+    <t>jkf</t>
+  </si>
+  <si>
+    <t>i121</t>
+  </si>
+  <si>
+    <t>pg 11</t>
   </si>
 </sst>
 </file>
@@ -555,15 +648,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B6C336-9D38-E34F-978B-469DDC35CEF1}">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="I443" sqref="I443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -588,8 +681,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -614,8 +710,11 @@
       <c r="H2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -640,8 +739,11 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -657,8 +759,11 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -674,8 +779,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -691,8 +799,11 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -708,8 +819,11 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -725,8 +839,11 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -751,8 +868,11 @@
       <c r="H9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -768,8 +888,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -785,8 +908,11 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -802,8 +928,11 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -819,8 +948,11 @@
       <c r="E13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -836,8 +968,11 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -853,8 +988,11 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -879,8 +1017,11 @@
       <c r="H16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -905,8 +1046,11 @@
       <c r="H17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -931,8 +1075,11 @@
       <c r="H18">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -957,8 +1104,11 @@
       <c r="H19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -983,8 +1133,11 @@
       <c r="H20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1000,8 +1153,11 @@
       <c r="E21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1017,8 +1173,11 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1034,8 +1193,11 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1051,8 +1213,11 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1068,8 +1233,11 @@
       <c r="E25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1085,8 +1253,11 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1102,8 +1273,11 @@
       <c r="E27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1119,8 +1293,11 @@
       <c r="E28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1136,8 +1313,11 @@
       <c r="E29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1153,8 +1333,11 @@
       <c r="E30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9</v>
       </c>
@@ -1170,8 +1353,11 @@
       <c r="E31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9</v>
       </c>
@@ -1187,8 +1373,11 @@
       <c r="E32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1201,8 +1390,11 @@
       <c r="D33">
         <v>280</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1215,8 +1407,11 @@
       <c r="D34">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1241,8 +1436,11 @@
       <c r="H35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1267,8 +1465,11 @@
       <c r="H36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1281,8 +1482,11 @@
       <c r="D37">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1307,8 +1511,11 @@
       <c r="H38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1321,8 +1528,11 @@
       <c r="D39">
         <v>511</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1335,8 +1545,11 @@
       <c r="D40">
         <v>389</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1349,8 +1562,11 @@
       <c r="D41">
         <v>478</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1363,8 +1579,11 @@
       <c r="D42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1377,8 +1596,11 @@
       <c r="D43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9</v>
       </c>
@@ -1391,8 +1613,11 @@
       <c r="D44">
         <v>375</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1405,8 +1630,11 @@
       <c r="D45">
         <v>278</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1419,8 +1647,11 @@
       <c r="D46">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1433,8 +1664,11 @@
       <c r="D47">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1447,8 +1681,11 @@
       <c r="D48">
         <v>352</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9</v>
       </c>
@@ -1461,8 +1698,11 @@
       <c r="D49">
         <v>337</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1475,8 +1715,11 @@
       <c r="D50">
         <v>378</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9</v>
       </c>
@@ -1489,8 +1732,11 @@
       <c r="D51">
         <v>450</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9</v>
       </c>
@@ -1515,8 +1761,11 @@
       <c r="H52">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9</v>
       </c>
@@ -1541,8 +1790,11 @@
       <c r="H53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9</v>
       </c>
@@ -1567,8 +1819,11 @@
       <c r="H54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9</v>
       </c>
@@ -1593,8 +1848,11 @@
       <c r="H55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>9</v>
       </c>
@@ -1607,8 +1865,11 @@
       <c r="D56">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>9</v>
       </c>
@@ -1621,8 +1882,11 @@
       <c r="D57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1635,8 +1899,11 @@
       <c r="D58">
         <v>473</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1649,8 +1916,11 @@
       <c r="D59">
         <v>463</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9</v>
       </c>
@@ -1675,8 +1945,11 @@
       <c r="H60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9</v>
       </c>
@@ -1701,8 +1974,11 @@
       <c r="H61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9</v>
       </c>
@@ -1715,8 +1991,11 @@
       <c r="D62">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9</v>
       </c>
@@ -1729,8 +2008,11 @@
       <c r="D63">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1743,8 +2025,11 @@
       <c r="D64">
         <v>514</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1757,8 +2042,11 @@
       <c r="D65">
         <v>248</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1771,8 +2059,11 @@
       <c r="D66">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8</v>
       </c>
@@ -1785,8 +2076,11 @@
       <c r="D67" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8</v>
       </c>
@@ -1799,8 +2093,11 @@
       <c r="D68">
         <v>323</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -1825,8 +2122,11 @@
       <c r="H69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8</v>
       </c>
@@ -1851,8 +2151,11 @@
       <c r="H70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8</v>
       </c>
@@ -1865,8 +2168,11 @@
       <c r="D71">
         <v>161</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1879,8 +2185,11 @@
       <c r="D72">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8</v>
       </c>
@@ -1905,8 +2214,11 @@
       <c r="H73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -1919,8 +2231,11 @@
       <c r="D74">
         <v>429</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1945,8 +2260,11 @@
       <c r="H75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -1971,8 +2289,11 @@
       <c r="H76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -1985,8 +2306,11 @@
       <c r="D77">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -1999,8 +2323,11 @@
       <c r="D78">
         <v>434</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2025,8 +2352,11 @@
       <c r="H79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2051,8 +2381,11 @@
       <c r="H80">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2065,8 +2398,11 @@
       <c r="D81" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2079,8 +2415,11 @@
       <c r="D82">
         <v>430</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2093,8 +2432,11 @@
       <c r="D83">
         <v>293</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2119,8 +2461,11 @@
       <c r="H84">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2145,8 +2490,11 @@
       <c r="H85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2159,8 +2507,11 @@
       <c r="D86">
         <v>292</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2173,8 +2524,11 @@
       <c r="D87">
         <v>53</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2187,8 +2541,11 @@
       <c r="D88">
         <v>539</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2201,8 +2558,11 @@
       <c r="D89">
         <v>550</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -2215,8 +2575,11 @@
       <c r="D90">
         <v>369</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8</v>
       </c>
@@ -2229,8 +2592,11 @@
       <c r="D91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -2255,8 +2621,11 @@
       <c r="H92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2281,8 +2650,11 @@
       <c r="H93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -2307,8 +2679,11 @@
       <c r="H94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2333,8 +2708,11 @@
       <c r="H95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2347,8 +2725,11 @@
       <c r="D96" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2361,8 +2742,11 @@
       <c r="D97">
         <v>145</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -2387,8 +2771,11 @@
       <c r="H98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -2413,8 +2800,11 @@
       <c r="H99">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -2427,8 +2817,11 @@
       <c r="D100">
         <v>551</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -2453,8 +2846,11 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8</v>
       </c>
@@ -2479,8 +2875,11 @@
       <c r="H102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -2493,8 +2892,11 @@
       <c r="D103">
         <v>189</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -2507,8 +2909,11 @@
       <c r="D104">
         <v>267</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -2521,8 +2926,11 @@
       <c r="D105" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>8</v>
       </c>
@@ -2547,8 +2955,11 @@
       <c r="H106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -2561,8 +2972,11 @@
       <c r="D107">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2575,8 +2989,11 @@
       <c r="D108">
         <v>358</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -2589,8 +3006,11 @@
       <c r="D109">
         <v>75</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>8</v>
       </c>
@@ -2615,8 +3035,11 @@
       <c r="H110">
         <v>55</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2629,8 +3052,11 @@
       <c r="D111">
         <v>31</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7</v>
       </c>
@@ -2643,8 +3069,11 @@
       <c r="D112">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>7</v>
       </c>
@@ -2657,8 +3086,11 @@
       <c r="D113" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7</v>
       </c>
@@ -2671,8 +3103,11 @@
       <c r="D114">
         <v>252</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -2685,8 +3120,11 @@
       <c r="D115">
         <v>559</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7</v>
       </c>
@@ -2699,8 +3137,11 @@
       <c r="D116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7</v>
       </c>
@@ -2713,8 +3154,11 @@
       <c r="D117">
         <v>601</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7</v>
       </c>
@@ -2727,8 +3171,11 @@
       <c r="D118">
         <v>495</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7</v>
       </c>
@@ -2741,8 +3188,11 @@
       <c r="D119">
         <v>56</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7</v>
       </c>
@@ -2755,8 +3205,11 @@
       <c r="D120">
         <v>329</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7</v>
       </c>
@@ -2781,8 +3234,11 @@
       <c r="H121">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7</v>
       </c>
@@ -2807,8 +3263,11 @@
       <c r="H122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7</v>
       </c>
@@ -2821,8 +3280,11 @@
       <c r="D123">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7</v>
       </c>
@@ -2835,8 +3297,11 @@
       <c r="D124">
         <v>553</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7</v>
       </c>
@@ -2849,8 +3314,11 @@
       <c r="D125">
         <v>421</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7</v>
       </c>
@@ -2863,8 +3331,11 @@
       <c r="D126">
         <v>431</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7</v>
       </c>
@@ -2877,8 +3348,11 @@
       <c r="D127">
         <v>546</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -2891,8 +3365,11 @@
       <c r="D128">
         <v>488</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -2917,8 +3394,11 @@
       <c r="H129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -2931,8 +3411,11 @@
       <c r="D130">
         <v>557</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7</v>
       </c>
@@ -2945,8 +3428,11 @@
       <c r="D131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7</v>
       </c>
@@ -2959,8 +3445,11 @@
       <c r="D132">
         <v>575</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7</v>
       </c>
@@ -2973,8 +3462,11 @@
       <c r="D133">
         <v>451</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -2987,8 +3479,11 @@
       <c r="D134">
         <v>433</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -3001,8 +3496,11 @@
       <c r="D135">
         <v>436</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -3015,8 +3513,11 @@
       <c r="D136">
         <v>28</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -3041,8 +3542,11 @@
       <c r="H137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -3055,8 +3559,11 @@
       <c r="D138" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -3081,8 +3588,11 @@
       <c r="H139">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -3107,8 +3617,11 @@
       <c r="H140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -3133,8 +3646,11 @@
       <c r="H141">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -3147,8 +3663,11 @@
       <c r="D142">
         <v>554</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -3161,8 +3680,11 @@
       <c r="D143">
         <v>239</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -3175,8 +3697,11 @@
       <c r="D144">
         <v>440</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -3189,8 +3714,11 @@
       <c r="D145">
         <v>407</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -3203,8 +3731,11 @@
       <c r="D146">
         <v>457</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
@@ -3217,8 +3748,11 @@
       <c r="D147">
         <v>221</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -3243,8 +3777,11 @@
       <c r="H148">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -3257,8 +3794,11 @@
       <c r="D149">
         <v>538</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7</v>
       </c>
@@ -3271,8 +3811,11 @@
       <c r="D150">
         <v>234</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7</v>
       </c>
@@ -3285,8 +3828,11 @@
       <c r="D151">
         <v>529</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3299,8 +3845,11 @@
       <c r="D152">
         <v>259</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7</v>
       </c>
@@ -3313,8 +3862,11 @@
       <c r="D153">
         <v>188</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -3327,8 +3879,11 @@
       <c r="D154" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3341,8 +3896,11 @@
       <c r="D155">
         <v>403</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3367,8 +3925,11 @@
       <c r="H156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3381,8 +3942,11 @@
       <c r="D157">
         <v>414</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3407,8 +3971,11 @@
       <c r="H158">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3433,8 +4000,11 @@
       <c r="H159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -3459,8 +4029,11 @@
       <c r="H160">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>7</v>
       </c>
@@ -3473,8 +4046,11 @@
       <c r="D161">
         <v>533</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>7</v>
       </c>
@@ -3487,8 +4063,11 @@
       <c r="D162">
         <v>569</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>7</v>
       </c>
@@ -3513,8 +4092,11 @@
       <c r="H163">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3539,8 +4121,11 @@
       <c r="H164">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6</v>
       </c>
@@ -3565,8 +4150,11 @@
       <c r="H165">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6</v>
       </c>
@@ -3579,8 +4167,11 @@
       <c r="D166">
         <v>330</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6</v>
       </c>
@@ -3605,8 +4196,11 @@
       <c r="H167">
         <v>23</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6</v>
       </c>
@@ -3619,8 +4213,11 @@
       <c r="D168">
         <v>30</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6</v>
       </c>
@@ -3633,8 +4230,11 @@
       <c r="D169">
         <v>486</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>6</v>
       </c>
@@ -3647,8 +4247,11 @@
       <c r="D170">
         <v>405</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6</v>
       </c>
@@ -3661,8 +4264,11 @@
       <c r="D171">
         <v>334</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>6</v>
       </c>
@@ -3675,8 +4281,11 @@
       <c r="D172">
         <v>423</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -3701,8 +4310,11 @@
       <c r="H173">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>6</v>
       </c>
@@ -3715,8 +4327,11 @@
       <c r="D174">
         <v>301</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6</v>
       </c>
@@ -3729,8 +4344,11 @@
       <c r="D175">
         <v>388</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>6</v>
       </c>
@@ -3743,8 +4361,11 @@
       <c r="D176">
         <v>498</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>6</v>
       </c>
@@ -3769,8 +4390,11 @@
       <c r="H177">
         <v>41</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>6</v>
       </c>
@@ -3783,8 +4407,11 @@
       <c r="D178">
         <v>344</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>6</v>
       </c>
@@ -3797,8 +4424,11 @@
       <c r="D179">
         <v>432</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>6</v>
       </c>
@@ -3811,8 +4441,11 @@
       <c r="D180">
         <v>383</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>6</v>
       </c>
@@ -3825,8 +4458,11 @@
       <c r="D181" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>6</v>
       </c>
@@ -3851,8 +4487,11 @@
       <c r="H182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6</v>
       </c>
@@ -3865,8 +4504,11 @@
       <c r="D183">
         <v>277</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>6</v>
       </c>
@@ -3879,8 +4521,11 @@
       <c r="D184">
         <v>567</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>6</v>
       </c>
@@ -3893,8 +4538,11 @@
       <c r="D185">
         <v>506</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>6</v>
       </c>
@@ -3907,8 +4555,11 @@
       <c r="D186">
         <v>312</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6</v>
       </c>
@@ -3933,8 +4584,11 @@
       <c r="H187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>6</v>
       </c>
@@ -3947,8 +4601,11 @@
       <c r="D188">
         <v>63</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>6</v>
       </c>
@@ -3973,8 +4630,11 @@
       <c r="H189">
         <v>21</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>6</v>
       </c>
@@ -3987,8 +4647,11 @@
       <c r="D190">
         <v>325</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6</v>
       </c>
@@ -4001,8 +4664,11 @@
       <c r="D191">
         <v>157</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6</v>
       </c>
@@ -4027,8 +4693,11 @@
       <c r="H192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -4053,8 +4722,11 @@
       <c r="H193">
         <v>15</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>6</v>
       </c>
@@ -4079,8 +4751,11 @@
       <c r="H194">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>6</v>
       </c>
@@ -4105,8 +4780,11 @@
       <c r="H195">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>6</v>
       </c>
@@ -4119,8 +4797,11 @@
       <c r="D196">
         <v>362</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>6</v>
       </c>
@@ -4133,8 +4814,11 @@
       <c r="D197">
         <v>471</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>6</v>
       </c>
@@ -4147,8 +4831,11 @@
       <c r="D198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>6</v>
       </c>
@@ -4161,8 +4848,11 @@
       <c r="D199">
         <v>395</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>6</v>
       </c>
@@ -4175,8 +4865,11 @@
       <c r="D200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>6</v>
       </c>
@@ -4189,8 +4882,11 @@
       <c r="D201">
         <v>253</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>6</v>
       </c>
@@ -4203,8 +4899,11 @@
       <c r="D202">
         <v>387</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>6</v>
       </c>
@@ -4217,8 +4916,11 @@
       <c r="D203">
         <v>214</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>6</v>
       </c>
@@ -4231,8 +4933,11 @@
       <c r="D204">
         <v>375</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>6</v>
       </c>
@@ -4245,8 +4950,11 @@
       <c r="D205" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>6</v>
       </c>
@@ -4259,8 +4967,11 @@
       <c r="D206">
         <v>534</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>6</v>
       </c>
@@ -4273,8 +4984,11 @@
       <c r="D207">
         <v>402</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>6</v>
       </c>
@@ -4287,8 +5001,11 @@
       <c r="D208">
         <v>573</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>6</v>
       </c>
@@ -4313,8 +5030,11 @@
       <c r="H209">
         <v>10</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>6</v>
       </c>
@@ -4327,8 +5047,11 @@
       <c r="D210">
         <v>357</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>6</v>
       </c>
@@ -4341,8 +5064,11 @@
       <c r="D211">
         <v>437</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6</v>
       </c>
@@ -4367,8 +5093,11 @@
       <c r="H212">
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6</v>
       </c>
@@ -4393,8 +5122,11 @@
       <c r="H213">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>6</v>
       </c>
@@ -4407,8 +5139,11 @@
       <c r="D214">
         <v>233</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6</v>
       </c>
@@ -4433,8 +5168,11 @@
       <c r="H215">
         <v>15</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>6</v>
       </c>
@@ -4447,8 +5185,11 @@
       <c r="D216">
         <v>96</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>6</v>
       </c>
@@ -4473,8 +5214,11 @@
       <c r="H217">
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>6</v>
       </c>
@@ -4499,8 +5243,11 @@
       <c r="H218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6</v>
       </c>
@@ -4524,6 +5271,4198 @@
       </c>
       <c r="H219">
         <v>9</v>
+      </c>
+      <c r="I219" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>37</v>
+      </c>
+      <c r="D220" t="s">
+        <v>60</v>
+      </c>
+      <c r="I220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221">
+        <v>177</v>
+      </c>
+      <c r="E221">
+        <v>16</v>
+      </c>
+      <c r="F221">
+        <v>21</v>
+      </c>
+      <c r="G221">
+        <v>63</v>
+      </c>
+      <c r="H221">
+        <v>10</v>
+      </c>
+      <c r="I221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222">
+        <v>268</v>
+      </c>
+      <c r="I222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223">
+        <v>66</v>
+      </c>
+      <c r="I223" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224">
+        <v>269</v>
+      </c>
+      <c r="I224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225">
+        <v>321</v>
+      </c>
+      <c r="I225" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>119</v>
+      </c>
+      <c r="E226">
+        <v>17</v>
+      </c>
+      <c r="F226">
+        <v>18</v>
+      </c>
+      <c r="G226">
+        <v>119</v>
+      </c>
+      <c r="H226">
+        <v>8</v>
+      </c>
+      <c r="I226" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>494</v>
+      </c>
+      <c r="I227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>24</v>
+      </c>
+      <c r="D228" t="s">
+        <v>61</v>
+      </c>
+      <c r="I228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229">
+        <v>547</v>
+      </c>
+      <c r="I229" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230">
+        <v>468</v>
+      </c>
+      <c r="E230">
+        <v>19</v>
+      </c>
+      <c r="F230">
+        <v>18</v>
+      </c>
+      <c r="G230">
+        <v>127</v>
+      </c>
+      <c r="H230">
+        <v>9</v>
+      </c>
+      <c r="I230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231">
+        <v>65</v>
+      </c>
+      <c r="I231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>29</v>
+      </c>
+      <c r="D232" t="s">
+        <v>62</v>
+      </c>
+      <c r="I232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>40</v>
+      </c>
+      <c r="D233">
+        <v>365</v>
+      </c>
+      <c r="E233">
+        <v>15</v>
+      </c>
+      <c r="F233">
+        <v>22</v>
+      </c>
+      <c r="G233">
+        <v>76</v>
+      </c>
+      <c r="H233">
+        <v>8</v>
+      </c>
+      <c r="I233" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>481</v>
+      </c>
+      <c r="E234">
+        <v>33</v>
+      </c>
+      <c r="F234">
+        <v>32</v>
+      </c>
+      <c r="G234">
+        <v>49</v>
+      </c>
+      <c r="H234">
+        <v>8</v>
+      </c>
+      <c r="I234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235">
+        <v>155</v>
+      </c>
+      <c r="I235" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236">
+        <v>213</v>
+      </c>
+      <c r="I236" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237">
+        <v>257</v>
+      </c>
+      <c r="I237" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>249</v>
+      </c>
+      <c r="I238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>243</v>
+      </c>
+      <c r="E239">
+        <v>14</v>
+      </c>
+      <c r="F239">
+        <v>13</v>
+      </c>
+      <c r="G239">
+        <v>81</v>
+      </c>
+      <c r="H239">
+        <v>10</v>
+      </c>
+      <c r="I239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240">
+        <v>508</v>
+      </c>
+      <c r="E240">
+        <v>20</v>
+      </c>
+      <c r="F240">
+        <v>17</v>
+      </c>
+      <c r="G240">
+        <v>84</v>
+      </c>
+      <c r="H240">
+        <v>8</v>
+      </c>
+      <c r="I240" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241">
+        <v>530</v>
+      </c>
+      <c r="E241">
+        <v>27</v>
+      </c>
+      <c r="F241">
+        <v>27</v>
+      </c>
+      <c r="G241">
+        <v>59</v>
+      </c>
+      <c r="H241">
+        <v>13</v>
+      </c>
+      <c r="I241" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242">
+        <v>370</v>
+      </c>
+      <c r="I242" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243">
+        <v>394</v>
+      </c>
+      <c r="I243" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244">
+        <v>140</v>
+      </c>
+      <c r="I244" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245">
+        <v>315</v>
+      </c>
+      <c r="E245">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>40</v>
+      </c>
+      <c r="H245">
+        <v>6</v>
+      </c>
+      <c r="I245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246">
+        <v>202</v>
+      </c>
+      <c r="I246" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247">
+        <v>178</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>6</v>
+      </c>
+      <c r="G247">
+        <v>42</v>
+      </c>
+      <c r="H247">
+        <v>6</v>
+      </c>
+      <c r="I247" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>34</v>
+      </c>
+      <c r="D248">
+        <v>427</v>
+      </c>
+      <c r="I248" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249">
+        <v>163</v>
+      </c>
+      <c r="I249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250">
+        <v>283</v>
+      </c>
+      <c r="I250" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>42</v>
+      </c>
+      <c r="D251" t="s">
+        <v>63</v>
+      </c>
+      <c r="E251">
+        <v>27</v>
+      </c>
+      <c r="F251">
+        <v>24</v>
+      </c>
+      <c r="G251">
+        <v>93</v>
+      </c>
+      <c r="H251">
+        <v>18</v>
+      </c>
+      <c r="I251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252">
+        <v>57</v>
+      </c>
+      <c r="I252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253">
+        <v>562</v>
+      </c>
+      <c r="I253" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254">
+        <v>85</v>
+      </c>
+      <c r="E254">
+        <v>10</v>
+      </c>
+      <c r="F254">
+        <v>9</v>
+      </c>
+      <c r="G254">
+        <v>37</v>
+      </c>
+      <c r="H254">
+        <v>6</v>
+      </c>
+      <c r="I254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255">
+        <v>141</v>
+      </c>
+      <c r="I255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256">
+        <v>522</v>
+      </c>
+      <c r="I256" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257">
+        <v>502</v>
+      </c>
+      <c r="I257" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258">
+        <v>139</v>
+      </c>
+      <c r="I258" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259">
+        <v>156</v>
+      </c>
+      <c r="I259" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>14</v>
+      </c>
+      <c r="D260">
+        <v>404</v>
+      </c>
+      <c r="I260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>32</v>
+      </c>
+      <c r="D261">
+        <v>160</v>
+      </c>
+      <c r="E261">
+        <v>32</v>
+      </c>
+      <c r="F261">
+        <v>31</v>
+      </c>
+      <c r="G261">
+        <v>85</v>
+      </c>
+      <c r="H261">
+        <v>17</v>
+      </c>
+      <c r="I261" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>4</v>
+      </c>
+      <c r="C262" t="s">
+        <v>27</v>
+      </c>
+      <c r="D262">
+        <v>351</v>
+      </c>
+      <c r="E262">
+        <v>7</v>
+      </c>
+      <c r="F262">
+        <v>10</v>
+      </c>
+      <c r="G262">
+        <v>35</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+      <c r="I262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>32</v>
+      </c>
+      <c r="D263">
+        <v>191</v>
+      </c>
+      <c r="I263" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <v>472</v>
+      </c>
+      <c r="I264" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>4</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265">
+        <v>347</v>
+      </c>
+      <c r="I265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266">
+        <v>131</v>
+      </c>
+      <c r="E266">
+        <v>39</v>
+      </c>
+      <c r="F266">
+        <v>41</v>
+      </c>
+      <c r="G266">
+        <v>109</v>
+      </c>
+      <c r="H266">
+        <v>25</v>
+      </c>
+      <c r="I266" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267">
+        <v>250</v>
+      </c>
+      <c r="I267" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>23</v>
+      </c>
+      <c r="D268">
+        <v>523</v>
+      </c>
+      <c r="I268" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269">
+        <v>150</v>
+      </c>
+      <c r="I269" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270">
+        <v>41</v>
+      </c>
+      <c r="I270" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271">
+        <v>381</v>
+      </c>
+      <c r="I271" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272">
+        <v>152</v>
+      </c>
+      <c r="I272" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273">
+        <v>7</v>
+      </c>
+      <c r="I273" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>26</v>
+      </c>
+      <c r="D274">
+        <v>285</v>
+      </c>
+      <c r="I274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275">
+        <v>189</v>
+      </c>
+      <c r="I275" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>29</v>
+      </c>
+      <c r="D276">
+        <v>38</v>
+      </c>
+      <c r="E276">
+        <v>28</v>
+      </c>
+      <c r="F276">
+        <v>30</v>
+      </c>
+      <c r="G276">
+        <v>61</v>
+      </c>
+      <c r="H276">
+        <v>22</v>
+      </c>
+      <c r="I276" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>228</v>
+      </c>
+      <c r="E277">
+        <v>11</v>
+      </c>
+      <c r="F277">
+        <v>10</v>
+      </c>
+      <c r="G277">
+        <v>7</v>
+      </c>
+      <c r="H277">
+        <v>4</v>
+      </c>
+      <c r="I277" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>230</v>
+      </c>
+      <c r="I278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>229</v>
+      </c>
+      <c r="I279" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280">
+        <v>311</v>
+      </c>
+      <c r="I280" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281">
+        <v>276</v>
+      </c>
+      <c r="I281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282">
+        <v>194</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+      <c r="G282">
+        <v>5</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283">
+        <v>308</v>
+      </c>
+      <c r="I283" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284">
+        <v>500</v>
+      </c>
+      <c r="I284" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285">
+        <v>100</v>
+      </c>
+      <c r="E285">
+        <v>12</v>
+      </c>
+      <c r="F285">
+        <v>14</v>
+      </c>
+      <c r="G285">
+        <v>50</v>
+      </c>
+      <c r="H285">
+        <v>7</v>
+      </c>
+      <c r="I285" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286">
+        <v>149</v>
+      </c>
+      <c r="I286" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287">
+        <v>72</v>
+      </c>
+      <c r="I287" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>22</v>
+      </c>
+      <c r="D288">
+        <v>372</v>
+      </c>
+      <c r="I288" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289">
+        <v>89</v>
+      </c>
+      <c r="E289">
+        <v>12</v>
+      </c>
+      <c r="F289">
+        <v>17</v>
+      </c>
+      <c r="G289">
+        <v>50</v>
+      </c>
+      <c r="H289">
+        <v>7</v>
+      </c>
+      <c r="I289" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290">
+        <v>317</v>
+      </c>
+      <c r="I290" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291">
+        <v>254</v>
+      </c>
+      <c r="I291" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>224</v>
+      </c>
+      <c r="I292" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293">
+        <v>385</v>
+      </c>
+      <c r="I293" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294">
+        <v>305</v>
+      </c>
+      <c r="I294" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295">
+        <v>81</v>
+      </c>
+      <c r="I295" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296">
+        <v>307</v>
+      </c>
+      <c r="I296" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297">
+        <v>201</v>
+      </c>
+      <c r="I297" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298">
+        <v>143</v>
+      </c>
+      <c r="I298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299">
+        <v>453</v>
+      </c>
+      <c r="I299" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300">
+        <v>79</v>
+      </c>
+      <c r="E300">
+        <v>29</v>
+      </c>
+      <c r="F300">
+        <v>26</v>
+      </c>
+      <c r="G300">
+        <v>68</v>
+      </c>
+      <c r="H300">
+        <v>10</v>
+      </c>
+      <c r="I300" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>27</v>
+      </c>
+      <c r="D301">
+        <v>353</v>
+      </c>
+      <c r="I301" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302">
+        <v>415</v>
+      </c>
+      <c r="I302" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303">
+        <v>443</v>
+      </c>
+      <c r="I303" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>64</v>
+      </c>
+      <c r="D304" t="s">
+        <v>65</v>
+      </c>
+      <c r="I304" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305">
+        <v>99</v>
+      </c>
+      <c r="E305">
+        <v>34</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305">
+        <v>45</v>
+      </c>
+      <c r="H305">
+        <v>20</v>
+      </c>
+      <c r="I305" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306">
+        <v>148</v>
+      </c>
+      <c r="I306" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" t="s">
+        <v>66</v>
+      </c>
+      <c r="I307" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>2</v>
+      </c>
+      <c r="B308">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>32</v>
+      </c>
+      <c r="D308">
+        <v>175</v>
+      </c>
+      <c r="I308" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>34</v>
+      </c>
+      <c r="D309">
+        <v>424</v>
+      </c>
+      <c r="I309" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>67</v>
+      </c>
+      <c r="D310">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>2</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311">
+        <v>222</v>
+      </c>
+      <c r="E311">
+        <v>31</v>
+      </c>
+      <c r="F311">
+        <v>31</v>
+      </c>
+      <c r="G311">
+        <v>73</v>
+      </c>
+      <c r="H311">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="B312">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312">
+        <v>286</v>
+      </c>
+      <c r="E312">
+        <v>11</v>
+      </c>
+      <c r="F312">
+        <v>16</v>
+      </c>
+      <c r="G312">
+        <v>127</v>
+      </c>
+      <c r="H312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="B313">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>493</v>
+      </c>
+      <c r="E313">
+        <v>8</v>
+      </c>
+      <c r="F313">
+        <v>10</v>
+      </c>
+      <c r="G313">
+        <v>34</v>
+      </c>
+      <c r="H313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" t="s">
+        <v>68</v>
+      </c>
+      <c r="E314">
+        <v>9</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314">
+        <v>8</v>
+      </c>
+      <c r="H314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>29</v>
+      </c>
+      <c r="D315" t="s">
+        <v>69</v>
+      </c>
+      <c r="E315">
+        <v>19</v>
+      </c>
+      <c r="F315">
+        <v>15</v>
+      </c>
+      <c r="G315">
+        <v>80</v>
+      </c>
+      <c r="H315">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>32</v>
+      </c>
+      <c r="D316">
+        <v>170</v>
+      </c>
+      <c r="E316">
+        <v>9</v>
+      </c>
+      <c r="F316">
+        <v>8</v>
+      </c>
+      <c r="G316">
+        <v>35</v>
+      </c>
+      <c r="H316">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>2</v>
+      </c>
+      <c r="B317">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>232</v>
+      </c>
+      <c r="E317">
+        <v>31</v>
+      </c>
+      <c r="F317">
+        <v>28</v>
+      </c>
+      <c r="G317">
+        <v>74</v>
+      </c>
+      <c r="H317">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>231</v>
+      </c>
+      <c r="E318">
+        <v>9</v>
+      </c>
+      <c r="F318">
+        <v>7</v>
+      </c>
+      <c r="G318">
+        <v>34</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="B319">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+      <c r="D320">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="C321" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321">
+        <v>266</v>
+      </c>
+      <c r="E321">
+        <v>40</v>
+      </c>
+      <c r="F321">
+        <v>36</v>
+      </c>
+      <c r="G321">
+        <v>115</v>
+      </c>
+      <c r="H321">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+      <c r="C322" t="s">
+        <v>37</v>
+      </c>
+      <c r="D322" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>29</v>
+      </c>
+      <c r="D324" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="B325">
+        <v>4</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>244</v>
+      </c>
+      <c r="E325">
+        <v>18</v>
+      </c>
+      <c r="F325">
+        <v>14</v>
+      </c>
+      <c r="G325">
+        <v>144</v>
+      </c>
+      <c r="H325">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>2</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>2</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>2</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>32</v>
+      </c>
+      <c r="D330">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>2</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
+        <v>14</v>
+      </c>
+      <c r="D331">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332" t="s">
+        <v>17</v>
+      </c>
+      <c r="D332">
+        <v>199</v>
+      </c>
+      <c r="E332">
+        <v>28</v>
+      </c>
+      <c r="F332">
+        <v>29</v>
+      </c>
+      <c r="G332">
+        <v>74</v>
+      </c>
+      <c r="H332">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>2</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>2</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335" t="s">
+        <v>23</v>
+      </c>
+      <c r="D335">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>2</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>18</v>
+      </c>
+      <c r="D337">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>2</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>2</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+      <c r="D340">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>2</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341" t="s">
+        <v>19</v>
+      </c>
+      <c r="D341">
+        <v>262</v>
+      </c>
+      <c r="E341">
+        <v>7</v>
+      </c>
+      <c r="F341">
+        <v>7</v>
+      </c>
+      <c r="G341">
+        <v>33</v>
+      </c>
+      <c r="H341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>2</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>2</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343" t="s">
+        <v>73</v>
+      </c>
+      <c r="D343">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>2</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346" t="s">
+        <v>26</v>
+      </c>
+      <c r="D346">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>2</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>2</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>2</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349" t="s">
+        <v>22</v>
+      </c>
+      <c r="D349">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>2</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350" t="s">
+        <v>28</v>
+      </c>
+      <c r="D350">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>2</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351" t="s">
+        <v>24</v>
+      </c>
+      <c r="D351">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>19</v>
+      </c>
+      <c r="D353">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>2</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354" t="s">
+        <v>32</v>
+      </c>
+      <c r="D354">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>2</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>32</v>
+      </c>
+      <c r="D356">
+        <v>173</v>
+      </c>
+      <c r="E356">
+        <v>26</v>
+      </c>
+      <c r="F356">
+        <v>25</v>
+      </c>
+      <c r="G356">
+        <v>115</v>
+      </c>
+      <c r="H356">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>2</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>27</v>
+      </c>
+      <c r="D357">
+        <v>340</v>
+      </c>
+      <c r="E357">
+        <v>16</v>
+      </c>
+      <c r="F357">
+        <v>14</v>
+      </c>
+      <c r="G357">
+        <v>73</v>
+      </c>
+      <c r="H357">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>2</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358" t="s">
+        <v>27</v>
+      </c>
+      <c r="D358">
+        <v>349</v>
+      </c>
+      <c r="E358">
+        <v>29</v>
+      </c>
+      <c r="F358">
+        <v>27</v>
+      </c>
+      <c r="G358">
+        <v>59</v>
+      </c>
+      <c r="H358">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>2</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359">
+        <v>487</v>
+      </c>
+      <c r="E359">
+        <v>12</v>
+      </c>
+      <c r="F359">
+        <v>16</v>
+      </c>
+      <c r="G359">
+        <v>41</v>
+      </c>
+      <c r="H359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>2</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
+        <v>74</v>
+      </c>
+      <c r="D360" t="s">
+        <v>75</v>
+      </c>
+      <c r="E360">
+        <v>8</v>
+      </c>
+      <c r="F360">
+        <v>7</v>
+      </c>
+      <c r="G360">
+        <v>22</v>
+      </c>
+      <c r="H360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" t="s">
+        <v>25</v>
+      </c>
+      <c r="D362">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>42</v>
+      </c>
+      <c r="D363" t="s">
+        <v>76</v>
+      </c>
+      <c r="E363">
+        <v>42</v>
+      </c>
+      <c r="F363">
+        <v>45</v>
+      </c>
+      <c r="G363">
+        <v>120</v>
+      </c>
+      <c r="H363">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>3</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364" t="s">
+        <v>25</v>
+      </c>
+      <c r="D364">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365">
+        <v>113</v>
+      </c>
+      <c r="E365">
+        <v>12</v>
+      </c>
+      <c r="F365">
+        <v>14</v>
+      </c>
+      <c r="G365">
+        <v>116</v>
+      </c>
+      <c r="H365">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366">
+        <v>445</v>
+      </c>
+      <c r="E366">
+        <v>8</v>
+      </c>
+      <c r="F366">
+        <v>5</v>
+      </c>
+      <c r="G366">
+        <v>45</v>
+      </c>
+      <c r="H366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>27</v>
+      </c>
+      <c r="D367">
+        <v>354</v>
+      </c>
+      <c r="E367">
+        <v>14</v>
+      </c>
+      <c r="F367">
+        <v>15</v>
+      </c>
+      <c r="G367">
+        <v>35</v>
+      </c>
+      <c r="H367">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369" t="s">
+        <v>15</v>
+      </c>
+      <c r="D369">
+        <v>95</v>
+      </c>
+      <c r="E369">
+        <v>20</v>
+      </c>
+      <c r="F369">
+        <v>15</v>
+      </c>
+      <c r="G369">
+        <v>123</v>
+      </c>
+      <c r="H369">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370" t="s">
+        <v>32</v>
+      </c>
+      <c r="D370">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371">
+        <v>200</v>
+      </c>
+      <c r="E371">
+        <v>5</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+      <c r="G371">
+        <v>5</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+      <c r="C373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D373">
+        <v>90</v>
+      </c>
+      <c r="E373">
+        <v>20</v>
+      </c>
+      <c r="F373">
+        <v>18</v>
+      </c>
+      <c r="G373">
+        <v>56</v>
+      </c>
+      <c r="H373">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376" t="s">
+        <v>20</v>
+      </c>
+      <c r="D376">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379" t="s">
+        <v>26</v>
+      </c>
+      <c r="D379">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381" t="s">
+        <v>25</v>
+      </c>
+      <c r="D381">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+      <c r="C383" t="s">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>245</v>
+      </c>
+      <c r="E383">
+        <v>9</v>
+      </c>
+      <c r="F383">
+        <v>12</v>
+      </c>
+      <c r="G383">
+        <v>17</v>
+      </c>
+      <c r="H383">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384">
+        <v>497</v>
+      </c>
+      <c r="E384">
+        <v>13</v>
+      </c>
+      <c r="F384">
+        <v>13</v>
+      </c>
+      <c r="G384">
+        <v>63</v>
+      </c>
+      <c r="H384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385" t="s">
+        <v>77</v>
+      </c>
+      <c r="D385" t="s">
+        <v>78</v>
+      </c>
+      <c r="E385">
+        <v>26</v>
+      </c>
+      <c r="F385">
+        <v>27</v>
+      </c>
+      <c r="G385">
+        <v>72</v>
+      </c>
+      <c r="H385">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386" t="s">
+        <v>32</v>
+      </c>
+      <c r="D386">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
+      <c r="C387" t="s">
+        <v>24</v>
+      </c>
+      <c r="D387">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389">
+        <v>216</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>14</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390" t="s">
+        <v>20</v>
+      </c>
+      <c r="D390">
+        <v>313</v>
+      </c>
+      <c r="E390">
+        <v>7</v>
+      </c>
+      <c r="F390">
+        <v>7</v>
+      </c>
+      <c r="G390">
+        <v>6</v>
+      </c>
+      <c r="H390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391" t="s">
+        <v>25</v>
+      </c>
+      <c r="D391">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+      <c r="C392" t="s">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>3</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393" t="s">
+        <v>32</v>
+      </c>
+      <c r="D393">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>3</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394" t="s">
+        <v>17</v>
+      </c>
+      <c r="D394">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>3</v>
+      </c>
+      <c r="B395">
+        <v>4</v>
+      </c>
+      <c r="C395" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>32</v>
+      </c>
+      <c r="D396">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>3</v>
+      </c>
+      <c r="B397">
+        <v>4</v>
+      </c>
+      <c r="C397" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397">
+        <v>160</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+      <c r="F397">
+        <v>5</v>
+      </c>
+      <c r="G397">
+        <v>4</v>
+      </c>
+      <c r="H397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+      <c r="C398" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>4</v>
+      </c>
+      <c r="C399" t="s">
+        <v>24</v>
+      </c>
+      <c r="D399">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>4</v>
+      </c>
+      <c r="C400" t="s">
+        <v>32</v>
+      </c>
+      <c r="D400">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>3</v>
+      </c>
+      <c r="B401">
+        <v>4</v>
+      </c>
+      <c r="C401" t="s">
+        <v>28</v>
+      </c>
+      <c r="D401">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>3</v>
+      </c>
+      <c r="B402">
+        <v>4</v>
+      </c>
+      <c r="C402" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>3</v>
+      </c>
+      <c r="B403">
+        <v>4</v>
+      </c>
+      <c r="C403" t="s">
+        <v>23</v>
+      </c>
+      <c r="D403">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>3</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>3</v>
+      </c>
+      <c r="B405">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405">
+        <v>101</v>
+      </c>
+      <c r="E405">
+        <v>7</v>
+      </c>
+      <c r="F405">
+        <v>5</v>
+      </c>
+      <c r="G405">
+        <v>28</v>
+      </c>
+      <c r="H405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>3</v>
+      </c>
+      <c r="B406">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>3</v>
+      </c>
+      <c r="B407">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>22</v>
+      </c>
+      <c r="D407">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>3</v>
+      </c>
+      <c r="B408">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>79</v>
+      </c>
+      <c r="D408">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>3</v>
+      </c>
+      <c r="B409">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>3</v>
+      </c>
+      <c r="B410">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>27</v>
+      </c>
+      <c r="D410">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>3</v>
+      </c>
+      <c r="B411">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411">
+        <v>512</v>
+      </c>
+      <c r="E411">
+        <v>18</v>
+      </c>
+      <c r="F411">
+        <v>17</v>
+      </c>
+      <c r="G411">
+        <v>70</v>
+      </c>
+      <c r="H411">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>3</v>
+      </c>
+      <c r="B412">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>18</v>
+      </c>
+      <c r="D412">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>3</v>
+      </c>
+      <c r="B413">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>42</v>
+      </c>
+      <c r="D413" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>3</v>
+      </c>
+      <c r="B414">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>32</v>
+      </c>
+      <c r="D414">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>3</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>32</v>
+      </c>
+      <c r="D415">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>3</v>
+      </c>
+      <c r="B416">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>9</v>
+      </c>
+      <c r="D416">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>3</v>
+      </c>
+      <c r="B417">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>42</v>
+      </c>
+      <c r="D417" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>3</v>
+      </c>
+      <c r="B418">
+        <v>6</v>
+      </c>
+      <c r="C418" t="s">
+        <v>45</v>
+      </c>
+      <c r="D418" t="s">
+        <v>82</v>
+      </c>
+      <c r="E418">
+        <v>39</v>
+      </c>
+      <c r="F418">
+        <v>37</v>
+      </c>
+      <c r="G418">
+        <v>69</v>
+      </c>
+      <c r="H418">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>3</v>
+      </c>
+      <c r="B419">
+        <v>6</v>
+      </c>
+      <c r="C419" t="s">
+        <v>32</v>
+      </c>
+      <c r="D419">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>3</v>
+      </c>
+      <c r="B420">
+        <v>6</v>
+      </c>
+      <c r="C420" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>3</v>
+      </c>
+      <c r="B421">
+        <v>6</v>
+      </c>
+      <c r="C421" t="s">
+        <v>14</v>
+      </c>
+      <c r="D421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>3</v>
+      </c>
+      <c r="B422">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>29</v>
+      </c>
+      <c r="D422" t="s">
+        <v>84</v>
+      </c>
+      <c r="E422">
+        <v>12</v>
+      </c>
+      <c r="F422">
+        <v>10</v>
+      </c>
+      <c r="G422">
+        <v>62</v>
+      </c>
+      <c r="H422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>3</v>
+      </c>
+      <c r="B423">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s">
+        <v>11</v>
+      </c>
+      <c r="D423">
+        <v>68</v>
+      </c>
+      <c r="E423">
+        <v>7</v>
+      </c>
+      <c r="F423">
+        <v>5</v>
+      </c>
+      <c r="G423">
+        <v>8</v>
+      </c>
+      <c r="H423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>3</v>
+      </c>
+      <c r="B424">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>34</v>
+      </c>
+      <c r="D424">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>3</v>
+      </c>
+      <c r="B425">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>23</v>
+      </c>
+      <c r="D425">
+        <v>517</v>
+      </c>
+      <c r="E425">
+        <v>32</v>
+      </c>
+      <c r="F425">
+        <v>29</v>
+      </c>
+      <c r="G425">
+        <v>105</v>
+      </c>
+      <c r="H425">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>3</v>
+      </c>
+      <c r="B426">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>3</v>
+      </c>
+      <c r="B427">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s">
+        <v>28</v>
+      </c>
+      <c r="D427">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>4</v>
+      </c>
+      <c r="B428">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s">
+        <v>20</v>
+      </c>
+      <c r="D428">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>4</v>
+      </c>
+      <c r="B429">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>4</v>
+      </c>
+      <c r="B430">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s">
+        <v>10</v>
+      </c>
+      <c r="D430">
+        <v>103</v>
+      </c>
+      <c r="E430">
+        <v>20</v>
+      </c>
+      <c r="F430">
+        <v>19</v>
+      </c>
+      <c r="G430">
+        <v>153</v>
+      </c>
+      <c r="H430">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>4</v>
+      </c>
+      <c r="B431">
+        <v>6</v>
+      </c>
+      <c r="C431" t="s">
+        <v>17</v>
+      </c>
+      <c r="D431">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>4</v>
+      </c>
+      <c r="B432">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s">
+        <v>10</v>
+      </c>
+      <c r="D432">
+        <v>108</v>
+      </c>
+      <c r="E432">
+        <v>17</v>
+      </c>
+      <c r="F432">
+        <v>12</v>
+      </c>
+      <c r="G432">
+        <v>100</v>
+      </c>
+      <c r="H432">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>4</v>
+      </c>
+      <c r="B433">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>24</v>
+      </c>
+      <c r="D433">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>4</v>
+      </c>
+      <c r="B434">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>17</v>
+      </c>
+      <c r="D434">
+        <v>208</v>
+      </c>
+      <c r="E434">
+        <v>25</v>
+      </c>
+      <c r="F434">
+        <v>26</v>
+      </c>
+      <c r="G434">
+        <v>152</v>
+      </c>
+      <c r="H434">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>4</v>
+      </c>
+      <c r="B435">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>26</v>
+      </c>
+      <c r="D435">
+        <v>299</v>
+      </c>
+      <c r="E435">
+        <v>9</v>
+      </c>
+      <c r="F435">
+        <v>16</v>
+      </c>
+      <c r="G435">
+        <v>58</v>
+      </c>
+      <c r="H435">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>4</v>
+      </c>
+      <c r="B436">
+        <v>6</v>
+      </c>
+      <c r="C436" t="s">
+        <v>26</v>
+      </c>
+      <c r="D436">
+        <v>300</v>
+      </c>
+      <c r="E436">
+        <v>24</v>
+      </c>
+      <c r="F436">
+        <v>21</v>
+      </c>
+      <c r="G436">
+        <v>134</v>
+      </c>
+      <c r="H436">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>24</v>
+      </c>
+      <c r="D437">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>4</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>17</v>
+      </c>
+      <c r="D438">
+        <v>195</v>
+      </c>
+      <c r="E438">
+        <v>24</v>
+      </c>
+      <c r="F438">
+        <v>24</v>
+      </c>
+      <c r="G438">
+        <v>119</v>
+      </c>
+      <c r="H438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>4</v>
+      </c>
+      <c r="B439">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>85</v>
+      </c>
+      <c r="D439" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>17</v>
+      </c>
+      <c r="D440">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>4</v>
+      </c>
+      <c r="B441">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>23</v>
+      </c>
+      <c r="D441">
+        <v>515</v>
+      </c>
+      <c r="E441">
+        <v>23</v>
+      </c>
+      <c r="F441">
+        <v>18</v>
+      </c>
+      <c r="G441">
+        <v>58</v>
+      </c>
+      <c r="H441">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>4</v>
+      </c>
+      <c r="B442">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>22</v>
+      </c>
+      <c r="D442">
+        <v>396</v>
+      </c>
+      <c r="E442">
+        <v>23</v>
+      </c>
+      <c r="F442">
+        <v>18</v>
+      </c>
+      <c r="G442">
+        <v>150</v>
+      </c>
+      <c r="H442">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I443" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Moities/Bolt_Field_Data_May132020.xlsx
+++ b/Data_Moities/Bolt_Field_Data_May132020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhonor/Documents/R/masters_thesis/Synthesis/Data_Moities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D2098F-7B8B-904C-956E-C7AF612FB6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EFB0C4-407D-8040-A8A5-788578C4EE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A8DB64A3-4E12-BA4A-A58D-23C912D9DA77}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="102">
   <si>
     <t>jbc</t>
   </si>
@@ -296,14 +296,56 @@
     <t>i121</t>
   </si>
   <si>
-    <t>pg 11</t>
+    <t>drp</t>
+  </si>
+  <si>
+    <t>erc</t>
+  </si>
+  <si>
+    <t>i132</t>
+  </si>
+  <si>
+    <t>i108</t>
+  </si>
+  <si>
+    <t>i129</t>
+  </si>
+  <si>
+    <t>i138</t>
+  </si>
+  <si>
+    <t>i124</t>
+  </si>
+  <si>
+    <t>mavelk</t>
+  </si>
+  <si>
+    <t>i127</t>
+  </si>
+  <si>
+    <t>vec</t>
+  </si>
+  <si>
+    <t>cvrc</t>
+  </si>
+  <si>
+    <t>i158</t>
+  </si>
+  <si>
+    <t>jbchy</t>
+  </si>
+  <si>
+    <t>i128</t>
+  </si>
+  <si>
+    <t>i125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -648,15 +690,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B6C336-9D38-E34F-978B-469DDC35CEF1}">
-  <dimension ref="A1:I443"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="I443" sqref="I443"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D558" sqref="D558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -685,7 +727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>9</v>
       </c>
@@ -714,7 +756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>9</v>
       </c>
@@ -743,7 +785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>9</v>
       </c>
@@ -763,7 +805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>9</v>
       </c>
@@ -783,7 +825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>9</v>
       </c>
@@ -803,7 +845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>9</v>
       </c>
@@ -823,7 +865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>9</v>
       </c>
@@ -843,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>9</v>
       </c>
@@ -872,7 +914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -892,7 +934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -912,7 +954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>9</v>
       </c>
@@ -932,7 +974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>8</v>
       </c>
@@ -952,7 +994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>8</v>
       </c>
@@ -972,7 +1014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>8</v>
       </c>
@@ -992,7 +1034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1021,7 +1063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1079,7 +1121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1108,7 +1150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1137,7 +1179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1157,7 +1199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1177,7 +1219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1197,7 +1239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1217,7 +1259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1237,7 +1279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1257,7 +1299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1277,7 +1319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1297,7 +1339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1337,7 +1379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>9</v>
       </c>
@@ -1357,7 +1399,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>9</v>
       </c>
@@ -1377,7 +1419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1411,7 +1453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1440,7 +1482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1469,7 +1511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1486,7 +1528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1515,7 +1557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1532,7 +1574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1549,7 +1591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1566,7 +1608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1583,7 +1625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1600,7 +1642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>9</v>
       </c>
@@ -1617,7 +1659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1634,7 +1676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1651,7 +1693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1668,7 +1710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1685,7 +1727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>9</v>
       </c>
@@ -1702,7 +1744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1719,7 +1761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>9</v>
       </c>
@@ -1736,7 +1778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>9</v>
       </c>
@@ -1765,7 +1807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>9</v>
       </c>
@@ -1794,7 +1836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>9</v>
       </c>
@@ -1823,7 +1865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>9</v>
       </c>
@@ -1852,7 +1894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>9</v>
       </c>
@@ -1869,7 +1911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>9</v>
       </c>
@@ -1886,7 +1928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1903,7 +1945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1920,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>9</v>
       </c>
@@ -1949,7 +1991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>9</v>
       </c>
@@ -1978,7 +2020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>9</v>
       </c>
@@ -1995,7 +2037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>9</v>
       </c>
@@ -2012,7 +2054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>9</v>
       </c>
@@ -2029,7 +2071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2046,7 +2088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>8</v>
       </c>
@@ -2063,7 +2105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>8</v>
       </c>
@@ -2080,7 +2122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>8</v>
       </c>
@@ -2097,7 +2139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2126,7 +2168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>8</v>
       </c>
@@ -2155,7 +2197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2172,7 +2214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2189,7 +2231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>8</v>
       </c>
@@ -2218,7 +2260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2235,7 +2277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>8</v>
       </c>
@@ -2264,7 +2306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2293,7 +2335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2310,7 +2352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>8</v>
       </c>
@@ -2327,7 +2369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2356,7 +2398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2385,7 +2427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2402,7 +2444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2419,7 +2461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2436,7 +2478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2465,7 +2507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2494,7 +2536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2511,7 +2553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2528,7 +2570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2545,7 +2587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2562,7 +2604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>8</v>
       </c>
@@ -2579,7 +2621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>8</v>
       </c>
@@ -2596,7 +2638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>8</v>
       </c>
@@ -2625,7 +2667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2654,7 +2696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>8</v>
       </c>
@@ -2683,7 +2725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2712,7 +2754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2729,7 +2771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2746,7 +2788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>8</v>
       </c>
@@ -2775,7 +2817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>8</v>
       </c>
@@ -2804,7 +2846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>8</v>
       </c>
@@ -2821,7 +2863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>8</v>
       </c>
@@ -2850,7 +2892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>8</v>
       </c>
@@ -2879,7 +2921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>8</v>
       </c>
@@ -2896,7 +2938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>8</v>
       </c>
@@ -2913,7 +2955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>8</v>
       </c>
@@ -2930,7 +2972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>8</v>
       </c>
@@ -2959,7 +3001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>8</v>
       </c>
@@ -2976,7 +3018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2993,7 +3035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>8</v>
       </c>
@@ -3010,7 +3052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>8</v>
       </c>
@@ -3039,7 +3081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>8</v>
       </c>
@@ -3056,7 +3098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>7</v>
       </c>
@@ -3073,7 +3115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>7</v>
       </c>
@@ -3090,7 +3132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>7</v>
       </c>
@@ -3107,7 +3149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>7</v>
       </c>
@@ -3124,7 +3166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>7</v>
       </c>
@@ -3141,7 +3183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>7</v>
       </c>
@@ -3158,7 +3200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>7</v>
       </c>
@@ -3175,7 +3217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>7</v>
       </c>
@@ -3192,7 +3234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>7</v>
       </c>
@@ -3209,7 +3251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>7</v>
       </c>
@@ -3238,7 +3280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>7</v>
       </c>
@@ -3267,7 +3309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>7</v>
       </c>
@@ -3284,7 +3326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>7</v>
       </c>
@@ -3301,7 +3343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>7</v>
       </c>
@@ -3318,7 +3360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3335,7 +3377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>7</v>
       </c>
@@ -3352,7 +3394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3369,7 +3411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>7</v>
       </c>
@@ -3398,7 +3440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>7</v>
       </c>
@@ -3415,7 +3457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>7</v>
       </c>
@@ -3432,7 +3474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>7</v>
       </c>
@@ -3449,7 +3491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>7</v>
       </c>
@@ -3466,7 +3508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>7</v>
       </c>
@@ -3483,7 +3525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>7</v>
       </c>
@@ -3500,7 +3542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>7</v>
       </c>
@@ -3517,7 +3559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>7</v>
       </c>
@@ -3546,7 +3588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>7</v>
       </c>
@@ -3563,7 +3605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>7</v>
       </c>
@@ -3592,7 +3634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>7</v>
       </c>
@@ -3621,7 +3663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>7</v>
       </c>
@@ -3650,7 +3692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>7</v>
       </c>
@@ -3667,7 +3709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>7</v>
       </c>
@@ -3684,7 +3726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>7</v>
       </c>
@@ -3701,7 +3743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>7</v>
       </c>
@@ -3718,7 +3760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>7</v>
       </c>
@@ -3735,7 +3777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>7</v>
       </c>
@@ -3752,7 +3794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>7</v>
       </c>
@@ -3781,7 +3823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>7</v>
       </c>
@@ -3798,7 +3840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>7</v>
       </c>
@@ -3815,7 +3857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>7</v>
       </c>
@@ -3832,7 +3874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3849,7 +3891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>7</v>
       </c>
@@ -3866,7 +3908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>7</v>
       </c>
@@ -3883,7 +3925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3900,7 +3942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3929,7 +3971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3946,7 +3988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3975,7 +4017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>7</v>
       </c>
@@ -4004,7 +4046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>7</v>
       </c>
@@ -4033,7 +4075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>7</v>
       </c>
@@ -4050,7 +4092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>7</v>
       </c>
@@ -4067,7 +4109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>7</v>
       </c>
@@ -4096,7 +4138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>7</v>
       </c>
@@ -4125,7 +4167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>6</v>
       </c>
@@ -4154,7 +4196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>6</v>
       </c>
@@ -4171,7 +4213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>6</v>
       </c>
@@ -4200,7 +4242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>6</v>
       </c>
@@ -4217,7 +4259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>6</v>
       </c>
@@ -4234,7 +4276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>6</v>
       </c>
@@ -4251,7 +4293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>6</v>
       </c>
@@ -4268,7 +4310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>6</v>
       </c>
@@ -4285,7 +4327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>6</v>
       </c>
@@ -4314,7 +4356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>6</v>
       </c>
@@ -4331,7 +4373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>6</v>
       </c>
@@ -4348,7 +4390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>6</v>
       </c>
@@ -4365,7 +4407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>6</v>
       </c>
@@ -4394,7 +4436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>6</v>
       </c>
@@ -4411,7 +4453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>6</v>
       </c>
@@ -4428,7 +4470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>6</v>
       </c>
@@ -4445,7 +4487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>6</v>
       </c>
@@ -4462,7 +4504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>6</v>
       </c>
@@ -4491,7 +4533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>6</v>
       </c>
@@ -4508,7 +4550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>6</v>
       </c>
@@ -4525,7 +4567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>6</v>
       </c>
@@ -4542,7 +4584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>6</v>
       </c>
@@ -4559,7 +4601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>6</v>
       </c>
@@ -4588,7 +4630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>6</v>
       </c>
@@ -4605,7 +4647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>6</v>
       </c>
@@ -4634,7 +4676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>6</v>
       </c>
@@ -4651,7 +4693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>6</v>
       </c>
@@ -4668,7 +4710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>6</v>
       </c>
@@ -4697,7 +4739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>6</v>
       </c>
@@ -4726,7 +4768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>6</v>
       </c>
@@ -4755,7 +4797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>6</v>
       </c>
@@ -4784,7 +4826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>6</v>
       </c>
@@ -4801,7 +4843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>6</v>
       </c>
@@ -4818,7 +4860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>6</v>
       </c>
@@ -4835,7 +4877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>6</v>
       </c>
@@ -4852,7 +4894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>6</v>
       </c>
@@ -4869,7 +4911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>6</v>
       </c>
@@ -4886,7 +4928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>6</v>
       </c>
@@ -4903,7 +4945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>6</v>
       </c>
@@ -4920,7 +4962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>6</v>
       </c>
@@ -4937,7 +4979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>6</v>
       </c>
@@ -4954,7 +4996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>6</v>
       </c>
@@ -4971,7 +5013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>6</v>
       </c>
@@ -4988,7 +5030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>6</v>
       </c>
@@ -5005,7 +5047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>6</v>
       </c>
@@ -5034,7 +5076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>6</v>
       </c>
@@ -5051,7 +5093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211">
         <v>6</v>
       </c>
@@ -5068,7 +5110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>6</v>
       </c>
@@ -5097,7 +5139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>6</v>
       </c>
@@ -5126,7 +5168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>6</v>
       </c>
@@ -5143,7 +5185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>6</v>
       </c>
@@ -5172,7 +5214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216">
         <v>6</v>
       </c>
@@ -5189,7 +5231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>6</v>
       </c>
@@ -5218,7 +5260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>6</v>
       </c>
@@ -5247,7 +5289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>6</v>
       </c>
@@ -5276,7 +5318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5293,7 +5335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5322,7 +5364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5339,7 +5381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5356,7 +5398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5373,7 +5415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5390,7 +5432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5419,7 +5461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5436,7 +5478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5453,7 +5495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5470,7 +5512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5499,7 +5541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5516,7 +5558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5533,7 +5575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5562,7 +5604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5591,7 +5633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5608,7 +5650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5625,7 +5667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5642,7 +5684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5659,7 +5701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5688,7 +5730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5717,7 +5759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5746,7 +5788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5763,7 +5805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5780,7 +5822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5797,7 +5839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5826,7 +5868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5843,7 +5885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5872,7 +5914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5889,7 +5931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5906,7 +5948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5923,7 +5965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5952,7 +5994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5969,7 +6011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5986,7 +6028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6015,7 +6057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6032,7 +6074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6049,7 +6091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>1</v>
       </c>
@@ -6066,7 +6108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>1</v>
       </c>
@@ -6083,7 +6125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6100,7 +6142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>1</v>
       </c>
@@ -6117,7 +6159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6146,7 +6188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262">
         <v>1</v>
       </c>
@@ -6175,7 +6217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263">
         <v>1</v>
       </c>
@@ -6192,7 +6234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264">
         <v>1</v>
       </c>
@@ -6209,7 +6251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6226,7 +6268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6255,7 +6297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6272,7 +6314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268">
         <v>1</v>
       </c>
@@ -6289,7 +6331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6306,7 +6348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270">
         <v>1</v>
       </c>
@@ -6323,7 +6365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6340,7 +6382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272">
         <v>1</v>
       </c>
@@ -6357,7 +6399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9">
       <c r="A273">
         <v>1</v>
       </c>
@@ -6374,7 +6416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6391,7 +6433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9">
       <c r="A275">
         <v>1</v>
       </c>
@@ -6408,7 +6450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9">
       <c r="A276">
         <v>1</v>
       </c>
@@ -6437,7 +6479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6466,7 +6508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9">
       <c r="A278">
         <v>1</v>
       </c>
@@ -6483,7 +6525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9">
       <c r="A279">
         <v>1</v>
       </c>
@@ -6500,7 +6542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9">
       <c r="A280">
         <v>1</v>
       </c>
@@ -6517,7 +6559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9">
       <c r="A281">
         <v>1</v>
       </c>
@@ -6534,7 +6576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9">
       <c r="A282">
         <v>1</v>
       </c>
@@ -6563,7 +6605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6580,7 +6622,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6597,7 +6639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9">
       <c r="A285">
         <v>1</v>
       </c>
@@ -6626,7 +6668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6643,7 +6685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9">
       <c r="A287">
         <v>1</v>
       </c>
@@ -6660,7 +6702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6677,7 +6719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9">
       <c r="A289">
         <v>1</v>
       </c>
@@ -6706,7 +6748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6723,7 +6765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9">
       <c r="A291">
         <v>1</v>
       </c>
@@ -6740,7 +6782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9">
       <c r="A292">
         <v>1</v>
       </c>
@@ -6757,7 +6799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9">
       <c r="A293">
         <v>1</v>
       </c>
@@ -6774,7 +6816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9">
       <c r="A294">
         <v>1</v>
       </c>
@@ -6791,7 +6833,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9">
       <c r="A295">
         <v>1</v>
       </c>
@@ -6808,7 +6850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9">
       <c r="A296">
         <v>1</v>
       </c>
@@ -6825,7 +6867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9">
       <c r="A297">
         <v>1</v>
       </c>
@@ -6842,7 +6884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9">
       <c r="A298">
         <v>1</v>
       </c>
@@ -6859,7 +6901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9">
       <c r="A299">
         <v>1</v>
       </c>
@@ -6876,7 +6918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6905,7 +6947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6922,7 +6964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6939,7 +6981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6956,7 +6998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6973,7 +7015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9">
       <c r="A305">
         <v>2</v>
       </c>
@@ -7002,7 +7044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9">
       <c r="A306">
         <v>2</v>
       </c>
@@ -7019,7 +7061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9">
       <c r="A307">
         <v>2</v>
       </c>
@@ -7036,7 +7078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9">
       <c r="A308">
         <v>2</v>
       </c>
@@ -7053,7 +7095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9">
       <c r="A309">
         <v>2</v>
       </c>
@@ -7070,7 +7112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9">
       <c r="A310">
         <v>2</v>
       </c>
@@ -7084,7 +7126,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9">
       <c r="A311">
         <v>2</v>
       </c>
@@ -7110,7 +7152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9">
       <c r="A312">
         <v>2</v>
       </c>
@@ -7136,7 +7178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9">
       <c r="A313">
         <v>2</v>
       </c>
@@ -7162,7 +7204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7188,7 +7230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7214,7 +7256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7240,7 +7282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7266,7 +7308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7306,7 +7348,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7320,7 +7362,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7346,7 +7388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7360,7 +7402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7374,7 +7416,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7388,7 +7430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7414,7 +7456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7428,7 +7470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7442,7 +7484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7456,7 +7498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7470,7 +7512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7484,7 +7526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7498,7 +7540,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7524,7 +7566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7538,7 +7580,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7552,7 +7594,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7566,7 +7608,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7580,7 +7622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7594,7 +7636,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7608,7 +7650,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7622,7 +7664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7636,7 +7678,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7662,7 +7704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7676,7 +7718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7690,7 +7732,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7704,7 +7746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7718,7 +7760,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7732,7 +7774,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7746,7 +7788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7760,7 +7802,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7774,7 +7816,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7788,7 +7830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7802,7 +7844,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7816,7 +7858,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7830,7 +7872,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7844,7 +7886,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7858,7 +7900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7884,7 +7926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7910,7 +7952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7936,7 +7978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7962,7 +8004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7988,7 +8030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>3</v>
       </c>
@@ -8002,7 +8044,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>3</v>
       </c>
@@ -8016,7 +8058,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>3</v>
       </c>
@@ -8042,7 +8084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>3</v>
       </c>
@@ -8056,7 +8098,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>3</v>
       </c>
@@ -8082,7 +8124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>3</v>
       </c>
@@ -8108,7 +8150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>3</v>
       </c>
@@ -8134,7 +8176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>3</v>
       </c>
@@ -8148,7 +8190,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>3</v>
       </c>
@@ -8174,7 +8216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>3</v>
       </c>
@@ -8188,7 +8230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>3</v>
       </c>
@@ -8214,7 +8256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>3</v>
       </c>
@@ -8228,7 +8270,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>3</v>
       </c>
@@ -8254,7 +8296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>3</v>
       </c>
@@ -8268,7 +8310,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>3</v>
       </c>
@@ -8282,7 +8324,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>3</v>
       </c>
@@ -8296,7 +8338,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>3</v>
       </c>
@@ -8310,7 +8352,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>3</v>
       </c>
@@ -8324,7 +8366,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>3</v>
       </c>
@@ -8338,7 +8380,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>3</v>
       </c>
@@ -8352,7 +8394,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>3</v>
       </c>
@@ -8366,7 +8408,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>3</v>
       </c>
@@ -8380,7 +8422,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>3</v>
       </c>
@@ -8406,7 +8448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>3</v>
       </c>
@@ -8432,7 +8474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>3</v>
       </c>
@@ -8458,7 +8500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>3</v>
       </c>
@@ -8472,7 +8514,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>3</v>
       </c>
@@ -8486,7 +8528,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>3</v>
       </c>
@@ -8500,7 +8542,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>3</v>
       </c>
@@ -8526,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>3</v>
       </c>
@@ -8552,7 +8594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>3</v>
       </c>
@@ -8566,7 +8608,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>3</v>
       </c>
@@ -8580,7 +8622,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>3</v>
       </c>
@@ -8594,7 +8636,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>3</v>
       </c>
@@ -8608,7 +8650,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>3</v>
       </c>
@@ -8622,7 +8664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>3</v>
       </c>
@@ -8636,7 +8678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>3</v>
       </c>
@@ -8662,7 +8704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>3</v>
       </c>
@@ -8676,7 +8718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>3</v>
       </c>
@@ -8690,7 +8732,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>3</v>
       </c>
@@ -8704,7 +8746,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>3</v>
       </c>
@@ -8718,7 +8760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>3</v>
       </c>
@@ -8732,7 +8774,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>3</v>
       </c>
@@ -8746,7 +8788,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>3</v>
       </c>
@@ -8760,7 +8802,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>3</v>
       </c>
@@ -8786,7 +8828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>3</v>
       </c>
@@ -8800,7 +8842,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>3</v>
       </c>
@@ -8814,7 +8856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>3</v>
       </c>
@@ -8828,7 +8870,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>3</v>
       </c>
@@ -8842,7 +8884,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>3</v>
       </c>
@@ -8856,7 +8898,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>3</v>
       </c>
@@ -8882,7 +8924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>3</v>
       </c>
@@ -8896,7 +8938,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>3</v>
       </c>
@@ -8910,7 +8952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>3</v>
       </c>
@@ -8924,7 +8966,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>3</v>
       </c>
@@ -8938,7 +8980,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>3</v>
       </c>
@@ -8952,7 +8994,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>3</v>
       </c>
@@ -8966,7 +9008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>3</v>
       </c>
@@ -8992,7 +9034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>3</v>
       </c>
@@ -9006,7 +9048,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>3</v>
       </c>
@@ -9020,7 +9062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>3</v>
       </c>
@@ -9034,7 +9076,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>3</v>
       </c>
@@ -9060,7 +9102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>3</v>
       </c>
@@ -9086,7 +9128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>3</v>
       </c>
@@ -9100,7 +9142,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>3</v>
       </c>
@@ -9126,7 +9168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>3</v>
       </c>
@@ -9140,7 +9182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>3</v>
       </c>
@@ -9154,7 +9196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>4</v>
       </c>
@@ -9168,7 +9210,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>4</v>
       </c>
@@ -9182,7 +9224,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>4</v>
       </c>
@@ -9208,7 +9250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>4</v>
       </c>
@@ -9222,7 +9264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>4</v>
       </c>
@@ -9248,7 +9290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>4</v>
       </c>
@@ -9262,7 +9304,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>4</v>
       </c>
@@ -9288,7 +9330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>4</v>
       </c>
@@ -9314,7 +9356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>4</v>
       </c>
@@ -9340,7 +9382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>4</v>
       </c>
@@ -9354,7 +9396,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>4</v>
       </c>
@@ -9380,7 +9422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>4</v>
       </c>
@@ -9394,7 +9436,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>4</v>
       </c>
@@ -9408,7 +9450,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>4</v>
       </c>
@@ -9434,7 +9476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>4</v>
       </c>
@@ -9460,9 +9502,2042 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I443" t="s">
+    <row r="443" spans="1:8">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>23</v>
+      </c>
+      <c r="D443">
+        <v>509</v>
+      </c>
+      <c r="E443">
+        <v>27</v>
+      </c>
+      <c r="F443">
+        <v>18</v>
+      </c>
+      <c r="G443">
+        <v>90</v>
+      </c>
+      <c r="H443">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444">
+        <v>4</v>
+      </c>
+      <c r="B444">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>15</v>
+      </c>
+      <c r="D444">
+        <v>28</v>
+      </c>
+      <c r="E444">
+        <v>31</v>
+      </c>
+      <c r="F444">
+        <v>31</v>
+      </c>
+      <c r="G444">
         <v>87</v>
+      </c>
+      <c r="H444">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445">
+        <v>4</v>
+      </c>
+      <c r="B445">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>28</v>
+      </c>
+      <c r="D445">
+        <v>20</v>
+      </c>
+      <c r="E445">
+        <v>26</v>
+      </c>
+      <c r="F445">
+        <v>31</v>
+      </c>
+      <c r="G445">
+        <v>56</v>
+      </c>
+      <c r="H445">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446">
+        <v>4</v>
+      </c>
+      <c r="B446">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446">
+        <v>484</v>
+      </c>
+      <c r="E446">
+        <v>23</v>
+      </c>
+      <c r="F446">
+        <v>20</v>
+      </c>
+      <c r="G446">
+        <v>146</v>
+      </c>
+      <c r="H446">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447">
+        <v>4</v>
+      </c>
+      <c r="B447">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>11</v>
+      </c>
+      <c r="D447">
+        <v>73</v>
+      </c>
+      <c r="E447">
+        <v>17</v>
+      </c>
+      <c r="F447">
+        <v>15</v>
+      </c>
+      <c r="G447">
+        <v>77</v>
+      </c>
+      <c r="H447">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448">
+        <v>4</v>
+      </c>
+      <c r="B448">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>27</v>
+      </c>
+      <c r="D448">
+        <v>346</v>
+      </c>
+      <c r="E448">
+        <v>12</v>
+      </c>
+      <c r="F448">
+        <v>17</v>
+      </c>
+      <c r="G448">
+        <v>113</v>
+      </c>
+      <c r="H448">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449">
+        <v>4</v>
+      </c>
+      <c r="B449">
+        <v>4</v>
+      </c>
+      <c r="C449" t="s">
+        <v>15</v>
+      </c>
+      <c r="D449">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450">
+        <v>4</v>
+      </c>
+      <c r="B450">
+        <v>4</v>
+      </c>
+      <c r="C450" t="s">
+        <v>26</v>
+      </c>
+      <c r="D450">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451">
+        <v>4</v>
+      </c>
+      <c r="B451">
+        <v>4</v>
+      </c>
+      <c r="C451" t="s">
+        <v>10</v>
+      </c>
+      <c r="D451">
+        <v>132</v>
+      </c>
+      <c r="E451">
+        <v>31</v>
+      </c>
+      <c r="F451">
+        <v>35</v>
+      </c>
+      <c r="G451">
+        <v>83</v>
+      </c>
+      <c r="H451">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452">
+        <v>4</v>
+      </c>
+      <c r="B452">
+        <v>4</v>
+      </c>
+      <c r="C452" t="s">
+        <v>29</v>
+      </c>
+      <c r="D452">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453">
+        <v>4</v>
+      </c>
+      <c r="B453">
+        <v>4</v>
+      </c>
+      <c r="C453" t="s">
+        <v>32</v>
+      </c>
+      <c r="D453">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454">
+        <v>4</v>
+      </c>
+      <c r="B454">
+        <v>4</v>
+      </c>
+      <c r="C454" t="s">
+        <v>11</v>
+      </c>
+      <c r="D454">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455">
+        <v>4</v>
+      </c>
+      <c r="B455">
+        <v>4</v>
+      </c>
+      <c r="C455" t="s">
+        <v>10</v>
+      </c>
+      <c r="D455">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456">
+        <v>4</v>
+      </c>
+      <c r="B456">
+        <v>4</v>
+      </c>
+      <c r="C456" t="s">
+        <v>87</v>
+      </c>
+      <c r="D456">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457">
+        <v>4</v>
+      </c>
+      <c r="B457">
+        <v>4</v>
+      </c>
+      <c r="C457" t="s">
+        <v>22</v>
+      </c>
+      <c r="D457">
+        <v>366</v>
+      </c>
+      <c r="E457">
+        <v>29</v>
+      </c>
+      <c r="F457">
+        <v>25</v>
+      </c>
+      <c r="G457">
+        <v>199</v>
+      </c>
+      <c r="H457">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458">
+        <v>4</v>
+      </c>
+      <c r="B458">
+        <v>4</v>
+      </c>
+      <c r="C458" t="s">
+        <v>28</v>
+      </c>
+      <c r="D458">
+        <v>18</v>
+      </c>
+      <c r="E458">
+        <v>18</v>
+      </c>
+      <c r="F458">
+        <v>14</v>
+      </c>
+      <c r="G458">
+        <v>90</v>
+      </c>
+      <c r="H458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459">
+        <v>4</v>
+      </c>
+      <c r="B459">
+        <v>4</v>
+      </c>
+      <c r="C459" t="s">
+        <v>23</v>
+      </c>
+      <c r="D459">
+        <v>521</v>
+      </c>
+      <c r="E459">
+        <v>8</v>
+      </c>
+      <c r="F459">
+        <v>12</v>
+      </c>
+      <c r="G459">
+        <v>9</v>
+      </c>
+      <c r="H459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460">
+        <v>4</v>
+      </c>
+      <c r="B460">
+        <v>4</v>
+      </c>
+      <c r="C460" t="s">
+        <v>11</v>
+      </c>
+      <c r="D460">
+        <v>70</v>
+      </c>
+      <c r="E460">
+        <v>7</v>
+      </c>
+      <c r="F460">
+        <v>8</v>
+      </c>
+      <c r="G460">
+        <v>21</v>
+      </c>
+      <c r="H460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461">
+        <v>4</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+      <c r="C461" t="s">
+        <v>23</v>
+      </c>
+      <c r="D461">
+        <v>528</v>
+      </c>
+      <c r="E461">
+        <v>10</v>
+      </c>
+      <c r="F461">
+        <v>20</v>
+      </c>
+      <c r="G461">
+        <v>72</v>
+      </c>
+      <c r="H461">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462">
+        <v>4</v>
+      </c>
+      <c r="B462">
+        <v>4</v>
+      </c>
+      <c r="C462" t="s">
+        <v>26</v>
+      </c>
+      <c r="D462">
+        <v>273</v>
+      </c>
+      <c r="E462">
+        <v>14</v>
+      </c>
+      <c r="F462">
+        <v>12</v>
+      </c>
+      <c r="G462">
+        <v>50</v>
+      </c>
+      <c r="H462">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463">
+        <v>4</v>
+      </c>
+      <c r="B463">
+        <v>3</v>
+      </c>
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+      <c r="D463">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464">
+        <v>4</v>
+      </c>
+      <c r="B464">
+        <v>3</v>
+      </c>
+      <c r="C464" t="s">
+        <v>26</v>
+      </c>
+      <c r="D464">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465">
+        <v>4</v>
+      </c>
+      <c r="B465">
+        <v>3</v>
+      </c>
+      <c r="C465" t="s">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466">
+        <v>4</v>
+      </c>
+      <c r="B466">
+        <v>3</v>
+      </c>
+      <c r="C466" t="s">
+        <v>24</v>
+      </c>
+      <c r="D466">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467">
+        <v>4</v>
+      </c>
+      <c r="B467">
+        <v>3</v>
+      </c>
+      <c r="C467" t="s">
+        <v>28</v>
+      </c>
+      <c r="D467">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468">
+        <v>4</v>
+      </c>
+      <c r="B468">
+        <v>3</v>
+      </c>
+      <c r="C468" t="s">
+        <v>21</v>
+      </c>
+      <c r="D468">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469">
+        <v>4</v>
+      </c>
+      <c r="B469">
+        <v>3</v>
+      </c>
+      <c r="C469" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470">
+        <v>4</v>
+      </c>
+      <c r="B470">
+        <v>3</v>
+      </c>
+      <c r="C470" t="s">
+        <v>21</v>
+      </c>
+      <c r="D470">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471">
+        <v>4</v>
+      </c>
+      <c r="B471">
+        <v>3</v>
+      </c>
+      <c r="C471" t="s">
+        <v>23</v>
+      </c>
+      <c r="D471">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>4</v>
+      </c>
+      <c r="B472">
+        <v>3</v>
+      </c>
+      <c r="C472" t="s">
+        <v>32</v>
+      </c>
+      <c r="D472">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473">
+        <v>3</v>
+      </c>
+      <c r="C473" t="s">
+        <v>28</v>
+      </c>
+      <c r="D473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474">
+        <v>4</v>
+      </c>
+      <c r="B474">
+        <v>3</v>
+      </c>
+      <c r="C474" t="s">
+        <v>27</v>
+      </c>
+      <c r="D474">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475">
+        <v>4</v>
+      </c>
+      <c r="B475">
+        <v>3</v>
+      </c>
+      <c r="C475" t="s">
+        <v>29</v>
+      </c>
+      <c r="D475">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476">
+        <v>4</v>
+      </c>
+      <c r="B476">
+        <v>3</v>
+      </c>
+      <c r="C476" t="s">
+        <v>88</v>
+      </c>
+      <c r="D476">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477">
+        <v>4</v>
+      </c>
+      <c r="B477">
+        <v>3</v>
+      </c>
+      <c r="C477" t="s">
+        <v>20</v>
+      </c>
+      <c r="D477" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478">
+        <v>4</v>
+      </c>
+      <c r="B478">
+        <v>3</v>
+      </c>
+      <c r="C478" t="s">
+        <v>23</v>
+      </c>
+      <c r="D478">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479">
+        <v>4</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479" t="s">
+        <v>22</v>
+      </c>
+      <c r="D479">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480">
+        <v>4</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+      <c r="C480" t="s">
+        <v>67</v>
+      </c>
+      <c r="D480">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481">
+        <v>4</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481" t="s">
+        <v>29</v>
+      </c>
+      <c r="D481" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482">
+        <v>4</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483">
+        <v>4</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483" t="s">
+        <v>25</v>
+      </c>
+      <c r="D483">
+        <v>538</v>
+      </c>
+      <c r="E483">
+        <v>15</v>
+      </c>
+      <c r="F483">
+        <v>15</v>
+      </c>
+      <c r="G483">
+        <v>25</v>
+      </c>
+      <c r="H483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484">
+        <v>4</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484" t="s">
+        <v>32</v>
+      </c>
+      <c r="D484">
+        <v>166</v>
+      </c>
+      <c r="E484">
+        <v>11</v>
+      </c>
+      <c r="F484">
+        <v>13</v>
+      </c>
+      <c r="G484">
+        <v>67</v>
+      </c>
+      <c r="H484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+      <c r="C485" t="s">
+        <v>27</v>
+      </c>
+      <c r="D485">
+        <v>355</v>
+      </c>
+      <c r="E485">
+        <v>48</v>
+      </c>
+      <c r="F485">
+        <v>40</v>
+      </c>
+      <c r="G485">
+        <v>110</v>
+      </c>
+      <c r="H485">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486">
+        <v>4</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486" t="s">
+        <v>11</v>
+      </c>
+      <c r="D486">
+        <v>74</v>
+      </c>
+      <c r="E486">
+        <v>9</v>
+      </c>
+      <c r="F486">
+        <v>12</v>
+      </c>
+      <c r="G486">
+        <v>28</v>
+      </c>
+      <c r="H486">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487">
+        <v>4</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487" t="s">
+        <v>23</v>
+      </c>
+      <c r="D487">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488">
+        <v>4</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+      <c r="C488" t="s">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>223</v>
+      </c>
+      <c r="E488">
+        <v>20</v>
+      </c>
+      <c r="F488">
+        <v>18</v>
+      </c>
+      <c r="G488">
+        <v>122</v>
+      </c>
+      <c r="H488">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489">
+        <v>4</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+      <c r="C489" t="s">
+        <v>28</v>
+      </c>
+      <c r="D489">
+        <v>21</v>
+      </c>
+      <c r="E489">
+        <v>15</v>
+      </c>
+      <c r="F489">
+        <v>14</v>
+      </c>
+      <c r="G489">
+        <v>70</v>
+      </c>
+      <c r="H489">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490">
+        <v>4</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490" t="s">
+        <v>15</v>
+      </c>
+      <c r="D490">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491">
+        <v>4</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491" t="s">
+        <v>9</v>
+      </c>
+      <c r="D491">
+        <v>467</v>
+      </c>
+      <c r="E491">
+        <v>18</v>
+      </c>
+      <c r="F491">
+        <v>18</v>
+      </c>
+      <c r="G491">
+        <v>94</v>
+      </c>
+      <c r="H491">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492">
+        <v>4</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492" t="s">
+        <v>34</v>
+      </c>
+      <c r="D492">
+        <v>426</v>
+      </c>
+      <c r="E492">
+        <v>17</v>
+      </c>
+      <c r="F492">
+        <v>20</v>
+      </c>
+      <c r="G492">
+        <v>70</v>
+      </c>
+      <c r="H492">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493">
+        <v>4</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494" t="s">
+        <v>22</v>
+      </c>
+      <c r="D494">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495">
+        <v>4</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496">
+        <v>4</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496" t="s">
+        <v>19</v>
+      </c>
+      <c r="D496">
+        <v>263</v>
+      </c>
+      <c r="E496">
+        <v>4</v>
+      </c>
+      <c r="F496">
+        <v>4</v>
+      </c>
+      <c r="G496">
+        <v>20</v>
+      </c>
+      <c r="H496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497">
+        <v>4</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497" t="s">
+        <v>28</v>
+      </c>
+      <c r="D497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498">
+        <v>4</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498" t="s">
+        <v>29</v>
+      </c>
+      <c r="D498">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499">
+        <v>4</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499" t="s">
+        <v>14</v>
+      </c>
+      <c r="D499">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500" t="s">
+        <v>32</v>
+      </c>
+      <c r="D500">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501">
+        <v>4</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+      <c r="C501" t="s">
+        <v>29</v>
+      </c>
+      <c r="D501">
+        <v>35</v>
+      </c>
+      <c r="E501">
+        <v>10</v>
+      </c>
+      <c r="F501">
+        <v>9</v>
+      </c>
+      <c r="G501">
+        <v>30</v>
+      </c>
+      <c r="H501">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502">
+        <v>4</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502" t="s">
+        <v>20</v>
+      </c>
+      <c r="D502" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503">
+        <v>5</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503" t="s">
+        <v>37</v>
+      </c>
+      <c r="D503" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504">
+        <v>5</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504" t="s">
+        <v>27</v>
+      </c>
+      <c r="D504">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505">
+        <v>5</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505" t="s">
+        <v>24</v>
+      </c>
+      <c r="D505">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506">
+        <v>5</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506" t="s">
+        <v>64</v>
+      </c>
+      <c r="D506" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507">
+        <v>5</v>
+      </c>
+      <c r="B507">
+        <v>2</v>
+      </c>
+      <c r="C507" t="s">
+        <v>27</v>
+      </c>
+      <c r="D507">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508">
+        <v>5</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508" t="s">
+        <v>18</v>
+      </c>
+      <c r="D508">
+        <v>439</v>
+      </c>
+      <c r="E508">
+        <v>16</v>
+      </c>
+      <c r="F508">
+        <v>16</v>
+      </c>
+      <c r="G508">
+        <v>77</v>
+      </c>
+      <c r="H508">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509">
+        <v>5</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+      <c r="C509" t="s">
+        <v>22</v>
+      </c>
+      <c r="D509">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510">
+        <v>5</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510" t="s">
+        <v>22</v>
+      </c>
+      <c r="D510">
+        <v>379</v>
+      </c>
+      <c r="E510">
+        <v>34</v>
+      </c>
+      <c r="F510">
+        <v>34</v>
+      </c>
+      <c r="G510">
+        <v>90</v>
+      </c>
+      <c r="H510">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511">
+        <v>5</v>
+      </c>
+      <c r="B511">
+        <v>2</v>
+      </c>
+      <c r="C511" t="s">
+        <v>94</v>
+      </c>
+      <c r="D511" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512">
+        <v>5</v>
+      </c>
+      <c r="B512">
+        <v>2</v>
+      </c>
+      <c r="C512" t="s">
+        <v>32</v>
+      </c>
+      <c r="D512">
+        <v>183</v>
+      </c>
+      <c r="E512">
+        <v>8</v>
+      </c>
+      <c r="F512">
+        <v>13</v>
+      </c>
+      <c r="G512">
+        <v>36</v>
+      </c>
+      <c r="H512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513">
+        <v>5</v>
+      </c>
+      <c r="B513">
+        <v>2</v>
+      </c>
+      <c r="C513" t="s">
+        <v>10</v>
+      </c>
+      <c r="D513">
+        <v>102</v>
+      </c>
+      <c r="E513">
+        <v>15</v>
+      </c>
+      <c r="F513">
+        <v>15</v>
+      </c>
+      <c r="G513">
+        <v>74</v>
+      </c>
+      <c r="H513">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514">
+        <v>5</v>
+      </c>
+      <c r="B514">
+        <v>2</v>
+      </c>
+      <c r="C514" t="s">
+        <v>40</v>
+      </c>
+      <c r="D514">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515">
+        <v>5</v>
+      </c>
+      <c r="B515">
+        <v>3</v>
+      </c>
+      <c r="C515" t="s">
+        <v>29</v>
+      </c>
+      <c r="D515">
+        <v>43</v>
+      </c>
+      <c r="E515" t="s">
+        <v>17</v>
+      </c>
+      <c r="F515">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516">
+        <v>5</v>
+      </c>
+      <c r="B516">
+        <v>3</v>
+      </c>
+      <c r="C516" t="s">
+        <v>17</v>
+      </c>
+      <c r="D516">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517">
+        <v>5</v>
+      </c>
+      <c r="B517">
+        <v>3</v>
+      </c>
+      <c r="C517" t="s">
+        <v>24</v>
+      </c>
+      <c r="D517">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518">
+        <v>5</v>
+      </c>
+      <c r="B518">
+        <v>3</v>
+      </c>
+      <c r="C518" t="s">
+        <v>22</v>
+      </c>
+      <c r="D518">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519">
+        <v>5</v>
+      </c>
+      <c r="B519">
+        <v>3</v>
+      </c>
+      <c r="C519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520">
+        <v>5</v>
+      </c>
+      <c r="B520">
+        <v>3</v>
+      </c>
+      <c r="C520" t="s">
+        <v>19</v>
+      </c>
+      <c r="D520">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521">
+        <v>5</v>
+      </c>
+      <c r="B521">
+        <v>3</v>
+      </c>
+      <c r="C521" t="s">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>238</v>
+      </c>
+      <c r="E521">
+        <v>5</v>
+      </c>
+      <c r="F521">
+        <v>7</v>
+      </c>
+      <c r="G521">
+        <v>9</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522">
+        <v>5</v>
+      </c>
+      <c r="B522">
+        <v>3</v>
+      </c>
+      <c r="C522" t="s">
+        <v>24</v>
+      </c>
+      <c r="D522">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523">
+        <v>5</v>
+      </c>
+      <c r="B523">
+        <v>3</v>
+      </c>
+      <c r="C523" t="s">
+        <v>32</v>
+      </c>
+      <c r="D523">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524">
+        <v>5</v>
+      </c>
+      <c r="B524">
+        <v>3</v>
+      </c>
+      <c r="C524" t="s">
+        <v>96</v>
+      </c>
+      <c r="D524">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525">
+        <v>5</v>
+      </c>
+      <c r="B525">
+        <v>3</v>
+      </c>
+      <c r="C525" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525">
+        <v>114</v>
+      </c>
+      <c r="E525">
+        <v>10</v>
+      </c>
+      <c r="F525">
+        <v>7</v>
+      </c>
+      <c r="G525">
+        <v>47</v>
+      </c>
+      <c r="H525">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526">
+        <v>5</v>
+      </c>
+      <c r="B526">
+        <v>3</v>
+      </c>
+      <c r="C526" t="s">
+        <v>24</v>
+      </c>
+      <c r="D526">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527">
+        <v>5</v>
+      </c>
+      <c r="B527">
+        <v>3</v>
+      </c>
+      <c r="C527" t="s">
+        <v>28</v>
+      </c>
+      <c r="D527">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528">
+        <v>5</v>
+      </c>
+      <c r="B528">
+        <v>3</v>
+      </c>
+      <c r="C528" t="s">
+        <v>24</v>
+      </c>
+      <c r="D528">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529">
+        <v>5</v>
+      </c>
+      <c r="B529">
+        <v>4</v>
+      </c>
+      <c r="C529" t="s">
+        <v>24</v>
+      </c>
+      <c r="D529">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530">
+        <v>5</v>
+      </c>
+      <c r="B530">
+        <v>4</v>
+      </c>
+      <c r="C530" t="s">
+        <v>26</v>
+      </c>
+      <c r="D530">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531">
+        <v>5</v>
+      </c>
+      <c r="B531">
+        <v>4</v>
+      </c>
+      <c r="C531" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532">
+        <v>5</v>
+      </c>
+      <c r="B532">
+        <v>4</v>
+      </c>
+      <c r="C532" t="s">
+        <v>11</v>
+      </c>
+      <c r="D532">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533">
+        <v>5</v>
+      </c>
+      <c r="B533">
+        <v>4</v>
+      </c>
+      <c r="C533" t="s">
+        <v>27</v>
+      </c>
+      <c r="D533">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534">
+        <v>5</v>
+      </c>
+      <c r="B534">
+        <v>4</v>
+      </c>
+      <c r="C534" t="s">
+        <v>40</v>
+      </c>
+      <c r="D534">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535">
+        <v>5</v>
+      </c>
+      <c r="B535">
+        <v>4</v>
+      </c>
+      <c r="C535" t="s">
+        <v>10</v>
+      </c>
+      <c r="D535">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536">
+        <v>5</v>
+      </c>
+      <c r="B536">
+        <v>4</v>
+      </c>
+      <c r="C536" t="s">
+        <v>11</v>
+      </c>
+      <c r="D536">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537">
+        <v>5</v>
+      </c>
+      <c r="B537">
+        <v>4</v>
+      </c>
+      <c r="C537" t="s">
+        <v>20</v>
+      </c>
+      <c r="D537">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538">
+        <v>5</v>
+      </c>
+      <c r="B538">
+        <v>4</v>
+      </c>
+      <c r="C538" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539">
+        <v>5</v>
+      </c>
+      <c r="B539">
+        <v>5</v>
+      </c>
+      <c r="C539" t="s">
+        <v>97</v>
+      </c>
+      <c r="D539">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540">
+        <v>5</v>
+      </c>
+      <c r="B540">
+        <v>5</v>
+      </c>
+      <c r="C540" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541">
+        <v>5</v>
+      </c>
+      <c r="B541">
+        <v>5</v>
+      </c>
+      <c r="C541" t="s">
+        <v>99</v>
+      </c>
+      <c r="D541" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542">
+        <v>5</v>
+      </c>
+      <c r="B542">
+        <v>5</v>
+      </c>
+      <c r="C542" t="s">
+        <v>17</v>
+      </c>
+      <c r="D542">
+        <v>217</v>
+      </c>
+      <c r="E542">
+        <v>21</v>
+      </c>
+      <c r="F542">
+        <v>13</v>
+      </c>
+      <c r="G542">
+        <v>17</v>
+      </c>
+      <c r="H542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543">
+        <v>5</v>
+      </c>
+      <c r="B543">
+        <v>5</v>
+      </c>
+      <c r="C543" t="s">
+        <v>94</v>
+      </c>
+      <c r="D543" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544">
+        <v>5</v>
+      </c>
+      <c r="B544">
+        <v>5</v>
+      </c>
+      <c r="C544" t="s">
+        <v>26</v>
+      </c>
+      <c r="D544">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545">
+        <v>5</v>
+      </c>
+      <c r="B545">
+        <v>5</v>
+      </c>
+      <c r="C545" t="s">
+        <v>9</v>
+      </c>
+      <c r="D545">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546">
+        <v>5</v>
+      </c>
+      <c r="B546">
+        <v>5</v>
+      </c>
+      <c r="C546" t="s">
+        <v>22</v>
+      </c>
+      <c r="D546">
+        <v>382</v>
+      </c>
+      <c r="E546">
+        <v>20</v>
+      </c>
+      <c r="F546">
+        <v>18</v>
+      </c>
+      <c r="G546">
+        <v>125</v>
+      </c>
+      <c r="H546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547">
+        <v>5</v>
+      </c>
+      <c r="B547">
+        <v>5</v>
+      </c>
+      <c r="C547" t="s">
+        <v>94</v>
+      </c>
+      <c r="D547" t="s">
+        <v>101</v>
+      </c>
+      <c r="E547">
+        <v>8</v>
+      </c>
+      <c r="F547">
+        <v>5</v>
+      </c>
+      <c r="G547">
+        <v>12</v>
+      </c>
+      <c r="H547">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548">
+        <v>5</v>
+      </c>
+      <c r="B548">
+        <v>5</v>
+      </c>
+      <c r="C548" t="s">
+        <v>22</v>
+      </c>
+      <c r="D548">
+        <v>386</v>
+      </c>
+      <c r="E548">
+        <v>5</v>
+      </c>
+      <c r="F548">
+        <v>5</v>
+      </c>
+      <c r="G548">
+        <v>29</v>
+      </c>
+      <c r="H548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549">
+        <v>5</v>
+      </c>
+      <c r="B549">
+        <v>6</v>
+      </c>
+      <c r="C549" t="s">
+        <v>28</v>
+      </c>
+      <c r="D549">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550">
+        <v>5</v>
+      </c>
+      <c r="B550">
+        <v>6</v>
+      </c>
+      <c r="C550" t="s">
+        <v>28</v>
+      </c>
+      <c r="D550">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551">
+        <v>5</v>
+      </c>
+      <c r="B551">
+        <v>6</v>
+      </c>
+      <c r="C551" t="s">
+        <v>14</v>
+      </c>
+      <c r="D551">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552">
+        <v>5</v>
+      </c>
+      <c r="B552">
+        <v>6</v>
+      </c>
+      <c r="C552" t="s">
+        <v>40</v>
+      </c>
+      <c r="D552">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553">
+        <v>5</v>
+      </c>
+      <c r="B553">
+        <v>6</v>
+      </c>
+      <c r="C553" t="s">
+        <v>19</v>
+      </c>
+      <c r="D553">
+        <v>258</v>
+      </c>
+      <c r="E553">
+        <v>19</v>
+      </c>
+      <c r="F553">
+        <v>16</v>
+      </c>
+      <c r="G553">
+        <v>79</v>
+      </c>
+      <c r="H553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554">
+        <v>5</v>
+      </c>
+      <c r="B554">
+        <v>6</v>
+      </c>
+      <c r="C554" t="s">
+        <v>24</v>
+      </c>
+      <c r="D554">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555">
+        <v>5</v>
+      </c>
+      <c r="B555">
+        <v>6</v>
+      </c>
+      <c r="C555" t="s">
+        <v>27</v>
+      </c>
+      <c r="D555">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556">
+        <v>5</v>
+      </c>
+      <c r="B556">
+        <v>6</v>
+      </c>
+      <c r="C556" t="s">
+        <v>24</v>
+      </c>
+      <c r="D556">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557">
+        <v>5</v>
+      </c>
+      <c r="B557">
+        <v>6</v>
+      </c>
+      <c r="C557" t="s">
+        <v>24</v>
+      </c>
+      <c r="D557">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558">
+        <v>5</v>
+      </c>
+      <c r="B558">
+        <v>6</v>
+      </c>
+      <c r="C558" t="s">
+        <v>40</v>
+      </c>
+      <c r="D558">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Moities/Bolt_Field_Data_May132020.xlsx
+++ b/Data_Moities/Bolt_Field_Data_May132020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhonor/Documents/R/masters_thesis/Synthesis/Data_Moities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EFB0C4-407D-8040-A8A5-788578C4EE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874D925-1FBF-F649-8CEA-EF29B3AD4B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A8DB64A3-4E12-BA4A-A58D-23C912D9DA77}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="104">
   <si>
     <t>jbc</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>i125</t>
+  </si>
+  <si>
+    <t>Maple_Died</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -690,15 +696,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B6C336-9D38-E34F-978B-469DDC35CEF1}">
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D558" sqref="D558"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -726,8 +732,11 @@
       <c r="I1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>9</v>
       </c>
@@ -756,7 +765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>9</v>
       </c>
@@ -785,7 +794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>9</v>
       </c>
@@ -805,7 +814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>9</v>
       </c>
@@ -825,7 +834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>9</v>
       </c>
@@ -845,7 +854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>9</v>
       </c>
@@ -865,7 +874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>9</v>
       </c>
@@ -885,7 +894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>9</v>
       </c>
@@ -914,7 +923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -934,7 +943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -954,7 +963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>9</v>
       </c>
@@ -974,7 +983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>8</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1219,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1239,7 +1248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1278,8 +1287,11 @@
       <c r="I25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>9</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>9</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>9</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>9</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>9</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>9</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>9</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>9</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>9</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>9</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1962,7 +1974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>9</v>
       </c>
@@ -1990,8 +2002,11 @@
       <c r="I60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2020,7 +2035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>9</v>
       </c>
@@ -2036,8 +2051,11 @@
       <c r="I62" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>9</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>9</v>
       </c>
@@ -4407,7 +4425,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>6</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>6</v>
       </c>
@@ -4453,7 +4471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>6</v>
       </c>
@@ -4470,7 +4488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>6</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>6</v>
       </c>
@@ -4504,7 +4522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>6</v>
       </c>
@@ -4533,7 +4551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>6</v>
       </c>
@@ -4550,7 +4568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>6</v>
       </c>
@@ -4567,7 +4585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>6</v>
       </c>
@@ -4583,8 +4601,11 @@
       <c r="I185" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>6</v>
       </c>
@@ -4601,7 +4622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>6</v>
       </c>
@@ -4630,7 +4651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>6</v>
       </c>
@@ -4647,7 +4668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>6</v>
       </c>
@@ -4676,7 +4697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>6</v>
       </c>
@@ -4693,7 +4714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>6</v>
       </c>
@@ -4710,7 +4731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>6</v>
       </c>
@@ -7125,6 +7146,9 @@
       <c r="D310">
         <v>541</v>
       </c>
+      <c r="I310" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311">
@@ -7151,6 +7175,9 @@
       <c r="H311">
         <v>14</v>
       </c>
+      <c r="I311" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312">
@@ -7177,6 +7204,9 @@
       <c r="H312">
         <v>7</v>
       </c>
+      <c r="I312" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313">
@@ -7203,6 +7233,9 @@
       <c r="H313">
         <v>5</v>
       </c>
+      <c r="I313" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314">
@@ -7229,6 +7262,9 @@
       <c r="H314">
         <v>4</v>
       </c>
+      <c r="I314" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315">
@@ -7255,6 +7291,9 @@
       <c r="H315">
         <v>9</v>
       </c>
+      <c r="I315" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316">
@@ -7281,6 +7320,9 @@
       <c r="H316">
         <v>8</v>
       </c>
+      <c r="I316" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317">
@@ -7307,6 +7349,9 @@
       <c r="H317">
         <v>27</v>
       </c>
+      <c r="I317" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318">
@@ -7333,6 +7378,9 @@
       <c r="H318">
         <v>2</v>
       </c>
+      <c r="I318" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319">
@@ -7347,6 +7395,9 @@
       <c r="D319">
         <v>459</v>
       </c>
+      <c r="I319" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320">
@@ -7361,8 +7412,11 @@
       <c r="D320">
         <v>290</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="I320" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7387,8 +7441,11 @@
       <c r="H321">
         <v>16</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="I321" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7401,8 +7458,11 @@
       <c r="D322" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="I322" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7415,8 +7475,11 @@
       <c r="D323">
         <v>306</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="I323" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7429,8 +7492,11 @@
       <c r="D324" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="I324" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7455,8 +7521,14 @@
       <c r="H325">
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="I325" t="s">
+        <v>59</v>
+      </c>
+      <c r="J325" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7469,8 +7541,11 @@
       <c r="D326">
         <v>15</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="I326" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7483,8 +7558,11 @@
       <c r="D327">
         <v>37</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="I327" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7497,8 +7575,11 @@
       <c r="D328">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="I328" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7511,8 +7592,11 @@
       <c r="D329">
         <v>14</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="I329" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7525,8 +7609,11 @@
       <c r="D330">
         <v>176</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="I330" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7539,8 +7626,11 @@
       <c r="D331">
         <v>418</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="I331" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7565,8 +7655,11 @@
       <c r="H332">
         <v>17</v>
       </c>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="I332" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7579,8 +7672,11 @@
       <c r="D333">
         <v>464</v>
       </c>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="I333" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7593,8 +7689,11 @@
       <c r="D334">
         <v>246</v>
       </c>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="I334" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7607,8 +7706,11 @@
       <c r="D335">
         <v>527</v>
       </c>
-    </row>
-    <row r="336" spans="1:8">
+      <c r="I335" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7621,8 +7723,11 @@
       <c r="D336">
         <v>58</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="I336" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7635,8 +7740,11 @@
       <c r="D337">
         <v>446</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="I337" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7649,8 +7757,11 @@
       <c r="D338">
         <v>324</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="I338" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7663,8 +7774,11 @@
       <c r="D339">
         <v>55</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="I339" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7677,8 +7791,11 @@
       <c r="D340">
         <v>272</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="I340" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7703,8 +7820,11 @@
       <c r="H341">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="I341" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7717,8 +7837,11 @@
       <c r="D342" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="I342" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7731,8 +7854,11 @@
       <c r="D343">
         <v>409</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="I343" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7745,8 +7871,11 @@
       <c r="D344">
         <v>23</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="I344" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7759,8 +7888,11 @@
       <c r="D345">
         <v>314</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="I345" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7773,8 +7905,11 @@
       <c r="D346">
         <v>289</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="I346" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7787,8 +7922,11 @@
       <c r="D347">
         <v>120</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="I347" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7801,8 +7939,11 @@
       <c r="D348">
         <v>319</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="I348" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7815,8 +7956,11 @@
       <c r="D349">
         <v>392</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="I349" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7829,8 +7973,11 @@
       <c r="D350">
         <v>12</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="I350" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7843,8 +7990,11 @@
       <c r="D351">
         <v>560</v>
       </c>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="I351" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7857,8 +8007,11 @@
       <c r="D352">
         <v>483</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="I352" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7871,8 +8024,11 @@
       <c r="D353">
         <v>251</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="I353" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7885,8 +8041,11 @@
       <c r="D354">
         <v>182</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
+      <c r="I354" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7899,8 +8058,11 @@
       <c r="D355">
         <v>92</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
+      <c r="I355" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7925,8 +8087,11 @@
       <c r="H356">
         <v>13</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="I356" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7951,8 +8116,11 @@
       <c r="H357">
         <v>9</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
+      <c r="I357" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7977,8 +8145,11 @@
       <c r="H358">
         <v>14</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
+      <c r="I358" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="A359">
         <v>2</v>
       </c>
@@ -8003,8 +8174,11 @@
       <c r="H359">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
+      <c r="I359" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="A360">
         <v>2</v>
       </c>
@@ -8029,8 +8203,11 @@
       <c r="H360">
         <v>6</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="I360" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
       <c r="A361">
         <v>3</v>
       </c>
@@ -8043,8 +8220,11 @@
       <c r="D361">
         <v>187</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
+      <c r="I361" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362">
         <v>3</v>
       </c>
@@ -8057,8 +8237,11 @@
       <c r="D362">
         <v>542</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="I362" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="A363">
         <v>3</v>
       </c>
@@ -8083,8 +8266,11 @@
       <c r="H363">
         <v>38</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
+      <c r="I363" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
       <c r="A364">
         <v>3</v>
       </c>
@@ -8097,8 +8283,11 @@
       <c r="D364">
         <v>540</v>
       </c>
-    </row>
-    <row r="365" spans="1:8">
+      <c r="I364" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="A365">
         <v>3</v>
       </c>
@@ -8123,8 +8312,11 @@
       <c r="H365">
         <v>9</v>
       </c>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="I365" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="A366">
         <v>3</v>
       </c>
@@ -8149,8 +8341,11 @@
       <c r="H366">
         <v>5</v>
       </c>
-    </row>
-    <row r="367" spans="1:8">
+      <c r="I366" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
       <c r="A367">
         <v>3</v>
       </c>
@@ -8175,8 +8370,11 @@
       <c r="H367">
         <v>11</v>
       </c>
-    </row>
-    <row r="368" spans="1:8">
+      <c r="I367" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="A368">
         <v>3</v>
       </c>
@@ -8189,8 +8387,11 @@
       <c r="D368">
         <v>338</v>
       </c>
-    </row>
-    <row r="369" spans="1:8">
+      <c r="I368" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="A369">
         <v>3</v>
       </c>
@@ -8215,8 +8416,11 @@
       <c r="H369">
         <v>12</v>
       </c>
-    </row>
-    <row r="370" spans="1:8">
+      <c r="I369" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="A370">
         <v>3</v>
       </c>
@@ -8229,8 +8433,11 @@
       <c r="D370">
         <v>169</v>
       </c>
-    </row>
-    <row r="371" spans="1:8">
+      <c r="I370" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="A371">
         <v>3</v>
       </c>
@@ -8255,8 +8462,11 @@
       <c r="H371">
         <v>2</v>
       </c>
-    </row>
-    <row r="372" spans="1:8">
+      <c r="I371" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="A372">
         <v>3</v>
       </c>
@@ -8269,8 +8479,11 @@
       <c r="D372">
         <v>110</v>
       </c>
-    </row>
-    <row r="373" spans="1:8">
+      <c r="I372" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="A373">
         <v>3</v>
       </c>
@@ -8295,8 +8508,11 @@
       <c r="H373">
         <v>6</v>
       </c>
-    </row>
-    <row r="374" spans="1:8">
+      <c r="I373" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="A374">
         <v>3</v>
       </c>
@@ -8309,8 +8525,11 @@
       <c r="D374">
         <v>454</v>
       </c>
-    </row>
-    <row r="375" spans="1:8">
+      <c r="I374" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
       <c r="A375">
         <v>3</v>
       </c>
@@ -8323,8 +8542,11 @@
       <c r="D375">
         <v>333</v>
       </c>
-    </row>
-    <row r="376" spans="1:8">
+      <c r="I375" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
       <c r="A376">
         <v>3</v>
       </c>
@@ -8337,8 +8559,11 @@
       <c r="D376">
         <v>310</v>
       </c>
-    </row>
-    <row r="377" spans="1:8">
+      <c r="I376" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
       <c r="A377">
         <v>3</v>
       </c>
@@ -8351,8 +8576,11 @@
       <c r="D377">
         <v>505</v>
       </c>
-    </row>
-    <row r="378" spans="1:8">
+      <c r="I377" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
       <c r="A378">
         <v>3</v>
       </c>
@@ -8365,8 +8593,11 @@
       <c r="D378">
         <v>408</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
+      <c r="I378" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
       <c r="A379">
         <v>3</v>
       </c>
@@ -8379,8 +8610,11 @@
       <c r="D379">
         <v>288</v>
       </c>
-    </row>
-    <row r="380" spans="1:8">
+      <c r="I379" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
       <c r="A380">
         <v>3</v>
       </c>
@@ -8393,8 +8627,11 @@
       <c r="D380">
         <v>304</v>
       </c>
-    </row>
-    <row r="381" spans="1:8">
+      <c r="I380" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
       <c r="A381">
         <v>3</v>
       </c>
@@ -8407,8 +8644,11 @@
       <c r="D381">
         <v>531</v>
       </c>
-    </row>
-    <row r="382" spans="1:8">
+      <c r="I381" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
       <c r="A382">
         <v>3</v>
       </c>
@@ -8421,8 +8661,11 @@
       <c r="D382">
         <v>153</v>
       </c>
-    </row>
-    <row r="383" spans="1:8">
+      <c r="I382" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="A383">
         <v>3</v>
       </c>
@@ -8447,8 +8690,11 @@
       <c r="H383">
         <v>10</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
+      <c r="I383" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
       <c r="A384">
         <v>3</v>
       </c>
@@ -8473,8 +8719,11 @@
       <c r="H384">
         <v>7</v>
       </c>
-    </row>
-    <row r="385" spans="1:8">
+      <c r="I384" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
       <c r="A385">
         <v>3</v>
       </c>
@@ -8499,8 +8748,11 @@
       <c r="H385">
         <v>22</v>
       </c>
-    </row>
-    <row r="386" spans="1:8">
+      <c r="I385" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
       <c r="A386">
         <v>3</v>
       </c>
@@ -8513,8 +8765,11 @@
       <c r="D386">
         <v>181</v>
       </c>
-    </row>
-    <row r="387" spans="1:8">
+      <c r="I386" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
       <c r="A387">
         <v>3</v>
       </c>
@@ -8527,8 +8782,11 @@
       <c r="D387">
         <v>570</v>
       </c>
-    </row>
-    <row r="388" spans="1:8">
+      <c r="I387" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
       <c r="A388">
         <v>3</v>
       </c>
@@ -8541,8 +8799,11 @@
       <c r="D388">
         <v>460</v>
       </c>
-    </row>
-    <row r="389" spans="1:8">
+      <c r="I388" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
       <c r="A389">
         <v>3</v>
       </c>
@@ -8567,8 +8828,11 @@
       <c r="H389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:8">
+      <c r="I389" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
       <c r="A390">
         <v>3</v>
       </c>
@@ -8593,8 +8857,11 @@
       <c r="H390">
         <v>6</v>
       </c>
-    </row>
-    <row r="391" spans="1:8">
+      <c r="I390" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
       <c r="A391">
         <v>3</v>
       </c>
@@ -8607,8 +8874,11 @@
       <c r="D391">
         <v>536</v>
       </c>
-    </row>
-    <row r="392" spans="1:8">
+      <c r="I391" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
       <c r="A392">
         <v>3</v>
       </c>
@@ -8621,8 +8891,11 @@
       <c r="D392">
         <v>240</v>
       </c>
-    </row>
-    <row r="393" spans="1:8">
+      <c r="I392" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
       <c r="A393">
         <v>3</v>
       </c>
@@ -8635,8 +8908,11 @@
       <c r="D393">
         <v>185</v>
       </c>
-    </row>
-    <row r="394" spans="1:8">
+      <c r="I393" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
       <c r="A394">
         <v>3</v>
       </c>
@@ -8649,8 +8925,11 @@
       <c r="D394">
         <v>219</v>
       </c>
-    </row>
-    <row r="395" spans="1:8">
+      <c r="I394" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
       <c r="A395">
         <v>3</v>
       </c>
@@ -8663,8 +8942,11 @@
       <c r="D395">
         <v>470</v>
       </c>
-    </row>
-    <row r="396" spans="1:8">
+      <c r="I395" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
       <c r="A396">
         <v>3</v>
       </c>
@@ -8677,8 +8959,11 @@
       <c r="D396">
         <v>167</v>
       </c>
-    </row>
-    <row r="397" spans="1:8">
+      <c r="I396" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
       <c r="A397">
         <v>3</v>
       </c>
@@ -8703,8 +8988,11 @@
       <c r="H397">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:8">
+      <c r="I397" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
       <c r="A398">
         <v>3</v>
       </c>
@@ -8717,8 +9005,11 @@
       <c r="D398">
         <v>121</v>
       </c>
-    </row>
-    <row r="399" spans="1:8">
+      <c r="I398" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
       <c r="A399">
         <v>3</v>
       </c>
@@ -8731,8 +9022,11 @@
       <c r="D399">
         <v>566</v>
       </c>
-    </row>
-    <row r="400" spans="1:8">
+      <c r="I399" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
       <c r="A400">
         <v>3</v>
       </c>
@@ -8745,8 +9039,11 @@
       <c r="D400">
         <v>184</v>
       </c>
-    </row>
-    <row r="401" spans="1:8">
+      <c r="I400" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="A401">
         <v>3</v>
       </c>
@@ -8759,8 +9056,11 @@
       <c r="D401">
         <v>17</v>
       </c>
-    </row>
-    <row r="402" spans="1:8">
+      <c r="I401" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
       <c r="A402">
         <v>3</v>
       </c>
@@ -8773,8 +9073,11 @@
       <c r="D402">
         <v>204</v>
       </c>
-    </row>
-    <row r="403" spans="1:8">
+      <c r="I402" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
       <c r="A403">
         <v>3</v>
       </c>
@@ -8787,8 +9090,11 @@
       <c r="D403">
         <v>525</v>
       </c>
-    </row>
-    <row r="404" spans="1:8">
+      <c r="I403" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="A404">
         <v>3</v>
       </c>
@@ -8801,8 +9107,11 @@
       <c r="D404">
         <v>71</v>
       </c>
-    </row>
-    <row r="405" spans="1:8">
+      <c r="I404" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
       <c r="A405">
         <v>3</v>
       </c>
@@ -8827,8 +9136,11 @@
       <c r="H405">
         <v>3</v>
       </c>
-    </row>
-    <row r="406" spans="1:8">
+      <c r="I405" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
       <c r="A406">
         <v>3</v>
       </c>
@@ -8841,8 +9153,11 @@
       <c r="D406">
         <v>205</v>
       </c>
-    </row>
-    <row r="407" spans="1:8">
+      <c r="I406" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="A407">
         <v>3</v>
       </c>
@@ -8855,8 +9170,11 @@
       <c r="D407">
         <v>368</v>
       </c>
-    </row>
-    <row r="408" spans="1:8">
+      <c r="I407" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
       <c r="A408">
         <v>3</v>
       </c>
@@ -8869,8 +9187,11 @@
       <c r="D408">
         <v>109</v>
       </c>
-    </row>
-    <row r="409" spans="1:8">
+      <c r="I408" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
       <c r="A409">
         <v>3</v>
       </c>
@@ -8883,8 +9204,11 @@
       <c r="D409">
         <v>503</v>
       </c>
-    </row>
-    <row r="410" spans="1:8">
+      <c r="I409" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
       <c r="A410">
         <v>3</v>
       </c>
@@ -8897,8 +9221,11 @@
       <c r="D410">
         <v>341</v>
       </c>
-    </row>
-    <row r="411" spans="1:8">
+      <c r="I410" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
       <c r="A411">
         <v>3</v>
       </c>
@@ -8923,8 +9250,11 @@
       <c r="H411">
         <v>10</v>
       </c>
-    </row>
-    <row r="412" spans="1:8">
+      <c r="I411" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
       <c r="A412">
         <v>3</v>
       </c>
@@ -8937,8 +9267,11 @@
       <c r="D412">
         <v>435</v>
       </c>
-    </row>
-    <row r="413" spans="1:8">
+      <c r="I412" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="A413">
         <v>3</v>
       </c>
@@ -8951,8 +9284,11 @@
       <c r="D413" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="414" spans="1:8">
+      <c r="I413" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
       <c r="A414">
         <v>3</v>
       </c>
@@ -8965,8 +9301,11 @@
       <c r="D414">
         <v>165</v>
       </c>
-    </row>
-    <row r="415" spans="1:8">
+      <c r="I414" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="A415">
         <v>3</v>
       </c>
@@ -8979,8 +9318,11 @@
       <c r="D415">
         <v>159</v>
       </c>
-    </row>
-    <row r="416" spans="1:8">
+      <c r="I415" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
       <c r="A416">
         <v>3</v>
       </c>
@@ -8993,8 +9335,11 @@
       <c r="D416">
         <v>462</v>
       </c>
-    </row>
-    <row r="417" spans="1:8">
+      <c r="I416" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
       <c r="A417">
         <v>3</v>
       </c>
@@ -9007,8 +9352,11 @@
       <c r="D417" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="418" spans="1:8">
+      <c r="I417" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
       <c r="A418">
         <v>3</v>
       </c>
@@ -9033,8 +9381,11 @@
       <c r="H418">
         <v>36</v>
       </c>
-    </row>
-    <row r="419" spans="1:8">
+      <c r="I418" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="A419">
         <v>3</v>
       </c>
@@ -9047,8 +9398,11 @@
       <c r="D419">
         <v>186</v>
       </c>
-    </row>
-    <row r="420" spans="1:8">
+      <c r="I419" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
       <c r="A420">
         <v>3</v>
       </c>
@@ -9061,8 +9415,11 @@
       <c r="D420" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="421" spans="1:8">
+      <c r="I420" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
       <c r="A421">
         <v>3</v>
       </c>
@@ -9075,8 +9432,11 @@
       <c r="D421">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:8">
+      <c r="I421" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
       <c r="A422">
         <v>3</v>
       </c>
@@ -9101,8 +9461,11 @@
       <c r="H422">
         <v>9</v>
       </c>
-    </row>
-    <row r="423" spans="1:8">
+      <c r="I422" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
       <c r="A423">
         <v>3</v>
       </c>
@@ -9127,8 +9490,11 @@
       <c r="H423">
         <v>4</v>
       </c>
-    </row>
-    <row r="424" spans="1:8">
+      <c r="I423" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
       <c r="A424">
         <v>3</v>
       </c>
@@ -9141,8 +9507,11 @@
       <c r="D424">
         <v>428</v>
       </c>
-    </row>
-    <row r="425" spans="1:8">
+      <c r="I424" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
       <c r="A425">
         <v>3</v>
       </c>
@@ -9167,8 +9536,11 @@
       <c r="H425">
         <v>30</v>
       </c>
-    </row>
-    <row r="426" spans="1:8">
+      <c r="I425" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
       <c r="A426">
         <v>3</v>
       </c>
@@ -9181,8 +9553,11 @@
       <c r="D426">
         <v>128</v>
       </c>
-    </row>
-    <row r="427" spans="1:8">
+      <c r="I426" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
       <c r="A427">
         <v>3</v>
       </c>
@@ -9195,8 +9570,11 @@
       <c r="D427">
         <v>8</v>
       </c>
-    </row>
-    <row r="428" spans="1:8">
+      <c r="I427" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
       <c r="A428">
         <v>4</v>
       </c>
@@ -9209,8 +9587,11 @@
       <c r="D428">
         <v>320</v>
       </c>
-    </row>
-    <row r="429" spans="1:8">
+      <c r="I428" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
       <c r="A429">
         <v>4</v>
       </c>
@@ -9223,8 +9604,11 @@
       <c r="D429">
         <v>247</v>
       </c>
-    </row>
-    <row r="430" spans="1:8">
+      <c r="I429" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
       <c r="A430">
         <v>4</v>
       </c>
@@ -9249,8 +9633,11 @@
       <c r="H430">
         <v>14</v>
       </c>
-    </row>
-    <row r="431" spans="1:8">
+      <c r="I430" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
       <c r="A431">
         <v>4</v>
       </c>
@@ -9263,8 +9650,11 @@
       <c r="D431">
         <v>209</v>
       </c>
-    </row>
-    <row r="432" spans="1:8">
+      <c r="I431" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
       <c r="A432">
         <v>4</v>
       </c>
@@ -9289,8 +9679,11 @@
       <c r="H432">
         <v>9</v>
       </c>
-    </row>
-    <row r="433" spans="1:8">
+      <c r="I432" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
       <c r="A433">
         <v>4</v>
       </c>
@@ -9303,8 +9696,11 @@
       <c r="D433">
         <v>572</v>
       </c>
-    </row>
-    <row r="434" spans="1:8">
+      <c r="I433" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
       <c r="A434">
         <v>4</v>
       </c>
@@ -9329,8 +9725,11 @@
       <c r="H434">
         <v>13</v>
       </c>
-    </row>
-    <row r="435" spans="1:8">
+      <c r="I434" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
       <c r="A435">
         <v>4</v>
       </c>
@@ -9355,8 +9754,11 @@
       <c r="H435">
         <v>14</v>
       </c>
-    </row>
-    <row r="436" spans="1:8">
+      <c r="I435" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
       <c r="A436">
         <v>4</v>
       </c>
@@ -9381,8 +9783,11 @@
       <c r="H436">
         <v>11</v>
       </c>
-    </row>
-    <row r="437" spans="1:8">
+      <c r="I436" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
       <c r="A437">
         <v>4</v>
       </c>
@@ -9395,8 +9800,11 @@
       <c r="D437">
         <v>564</v>
       </c>
-    </row>
-    <row r="438" spans="1:8">
+      <c r="I437" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
       <c r="A438">
         <v>4</v>
       </c>
@@ -9421,8 +9829,11 @@
       <c r="H438">
         <v>7</v>
       </c>
-    </row>
-    <row r="439" spans="1:8">
+      <c r="I438" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
       <c r="A439">
         <v>4</v>
       </c>
@@ -9435,8 +9846,11 @@
       <c r="D439" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="440" spans="1:8">
+      <c r="I439" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
       <c r="A440">
         <v>4</v>
       </c>
@@ -9449,8 +9863,11 @@
       <c r="D440">
         <v>218</v>
       </c>
-    </row>
-    <row r="441" spans="1:8">
+      <c r="I440" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
       <c r="A441">
         <v>4</v>
       </c>
@@ -9475,8 +9892,11 @@
       <c r="H441">
         <v>10</v>
       </c>
-    </row>
-    <row r="442" spans="1:8">
+      <c r="I441" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
       <c r="A442">
         <v>4</v>
       </c>
@@ -9501,8 +9921,11 @@
       <c r="H442">
         <v>17</v>
       </c>
-    </row>
-    <row r="443" spans="1:8">
+      <c r="I442" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="A443">
         <v>4</v>
       </c>
@@ -9527,8 +9950,11 @@
       <c r="H443">
         <v>20</v>
       </c>
-    </row>
-    <row r="444" spans="1:8">
+      <c r="I443" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
       <c r="A444">
         <v>4</v>
       </c>
@@ -9553,8 +9979,11 @@
       <c r="H444">
         <v>10</v>
       </c>
-    </row>
-    <row r="445" spans="1:8">
+      <c r="I444" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
       <c r="A445">
         <v>4</v>
       </c>
@@ -9579,8 +10008,11 @@
       <c r="H445">
         <v>15</v>
       </c>
-    </row>
-    <row r="446" spans="1:8">
+      <c r="I445" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
       <c r="A446">
         <v>4</v>
       </c>
@@ -9605,8 +10037,11 @@
       <c r="H446">
         <v>15</v>
       </c>
-    </row>
-    <row r="447" spans="1:8">
+      <c r="I446" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
       <c r="A447">
         <v>4</v>
       </c>
@@ -9631,8 +10066,11 @@
       <c r="H447">
         <v>9</v>
       </c>
-    </row>
-    <row r="448" spans="1:8">
+      <c r="I447" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
       <c r="A448">
         <v>4</v>
       </c>
@@ -9657,8 +10095,11 @@
       <c r="H448">
         <v>16</v>
       </c>
-    </row>
-    <row r="449" spans="1:8">
+      <c r="I448" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
       <c r="A449">
         <v>4</v>
       </c>
@@ -9671,8 +10112,11 @@
       <c r="D449">
         <v>80</v>
       </c>
-    </row>
-    <row r="450" spans="1:8">
+      <c r="I449" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="A450">
         <v>4</v>
       </c>
@@ -9685,8 +10129,11 @@
       <c r="D450">
         <v>287</v>
       </c>
-    </row>
-    <row r="451" spans="1:8">
+      <c r="I450" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
       <c r="A451">
         <v>4</v>
       </c>
@@ -9711,8 +10158,11 @@
       <c r="H451">
         <v>32</v>
       </c>
-    </row>
-    <row r="452" spans="1:8">
+      <c r="I451" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
       <c r="A452">
         <v>4</v>
       </c>
@@ -9725,8 +10175,11 @@
       <c r="D452">
         <v>39</v>
       </c>
-    </row>
-    <row r="453" spans="1:8">
+      <c r="I452" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
       <c r="A453">
         <v>4</v>
       </c>
@@ -9739,8 +10192,11 @@
       <c r="D453">
         <v>158</v>
       </c>
-    </row>
-    <row r="454" spans="1:8">
+      <c r="I453" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
       <c r="A454">
         <v>4</v>
       </c>
@@ -9753,8 +10209,11 @@
       <c r="D454">
         <v>50</v>
       </c>
-    </row>
-    <row r="455" spans="1:8">
+      <c r="I454" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
       <c r="A455">
         <v>4</v>
       </c>
@@ -9767,8 +10226,11 @@
       <c r="D455">
         <v>111</v>
       </c>
-    </row>
-    <row r="456" spans="1:8">
+      <c r="I455" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
       <c r="A456">
         <v>4</v>
       </c>
@@ -9781,8 +10243,11 @@
       <c r="D456">
         <v>510</v>
       </c>
-    </row>
-    <row r="457" spans="1:8">
+      <c r="I456" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
       <c r="A457">
         <v>4</v>
       </c>
@@ -9807,8 +10272,11 @@
       <c r="H457">
         <v>20</v>
       </c>
-    </row>
-    <row r="458" spans="1:8">
+      <c r="I457" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
       <c r="A458">
         <v>4</v>
       </c>
@@ -9833,8 +10301,11 @@
       <c r="H458">
         <v>6</v>
       </c>
-    </row>
-    <row r="459" spans="1:8">
+      <c r="I458" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
       <c r="A459">
         <v>4</v>
       </c>
@@ -9859,8 +10330,11 @@
       <c r="H459">
         <v>3</v>
       </c>
-    </row>
-    <row r="460" spans="1:8">
+      <c r="I459" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
       <c r="A460">
         <v>4</v>
       </c>
@@ -9885,8 +10359,11 @@
       <c r="H460">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:8">
+      <c r="I460" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
       <c r="A461">
         <v>4</v>
       </c>
@@ -9911,8 +10388,11 @@
       <c r="H461">
         <v>6</v>
       </c>
-    </row>
-    <row r="462" spans="1:8">
+      <c r="I461" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
       <c r="A462">
         <v>4</v>
       </c>
@@ -9937,8 +10417,11 @@
       <c r="H462">
         <v>8</v>
       </c>
-    </row>
-    <row r="463" spans="1:8">
+      <c r="I462" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
       <c r="A463">
         <v>4</v>
       </c>
@@ -9951,8 +10434,11 @@
       <c r="D463">
         <v>295</v>
       </c>
-    </row>
-    <row r="464" spans="1:8">
+      <c r="I463" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
       <c r="A464">
         <v>4</v>
       </c>
@@ -9965,8 +10451,11 @@
       <c r="D464">
         <v>302</v>
       </c>
-    </row>
-    <row r="465" spans="1:4">
+      <c r="I464" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
       <c r="A465">
         <v>4</v>
       </c>
@@ -9979,8 +10468,11 @@
       <c r="D465">
         <v>241</v>
       </c>
-    </row>
-    <row r="466" spans="1:4">
+      <c r="I465" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
       <c r="A466">
         <v>4</v>
       </c>
@@ -9993,8 +10485,11 @@
       <c r="D466">
         <v>549</v>
       </c>
-    </row>
-    <row r="467" spans="1:4">
+      <c r="I466" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
       <c r="A467">
         <v>4</v>
       </c>
@@ -10007,8 +10502,11 @@
       <c r="D467">
         <v>24</v>
       </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="I467" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
       <c r="A468">
         <v>4</v>
       </c>
@@ -10021,8 +10519,11 @@
       <c r="D468">
         <v>146</v>
       </c>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="I468" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
       <c r="A469">
         <v>4</v>
       </c>
@@ -10035,8 +10536,11 @@
       <c r="D469">
         <v>401</v>
       </c>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="I469" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
       <c r="A470">
         <v>4</v>
       </c>
@@ -10049,8 +10553,11 @@
       <c r="D470">
         <v>151</v>
       </c>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="I470" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
       <c r="A471">
         <v>4</v>
       </c>
@@ -10063,8 +10570,11 @@
       <c r="D471">
         <v>513</v>
       </c>
-    </row>
-    <row r="472" spans="1:4">
+      <c r="I471" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
       <c r="A472">
         <v>4</v>
       </c>
@@ -10077,8 +10587,11 @@
       <c r="D472">
         <v>164</v>
       </c>
-    </row>
-    <row r="473" spans="1:4">
+      <c r="I472" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
       <c r="A473">
         <v>4</v>
       </c>
@@ -10091,8 +10604,11 @@
       <c r="D473">
         <v>6</v>
       </c>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="I473" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
       <c r="A474">
         <v>4</v>
       </c>
@@ -10105,8 +10621,11 @@
       <c r="D474">
         <v>339</v>
       </c>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="I474" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
       <c r="A475">
         <v>4</v>
       </c>
@@ -10119,8 +10638,11 @@
       <c r="D475">
         <v>34</v>
       </c>
-    </row>
-    <row r="476" spans="1:4">
+      <c r="I475" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
       <c r="A476">
         <v>4</v>
       </c>
@@ -10133,8 +10655,11 @@
       <c r="D476">
         <v>499</v>
       </c>
-    </row>
-    <row r="477" spans="1:4">
+      <c r="I476" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
       <c r="A477">
         <v>4</v>
       </c>
@@ -10147,8 +10672,11 @@
       <c r="D477" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="I477" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
       <c r="A478">
         <v>4</v>
       </c>
@@ -10161,8 +10689,11 @@
       <c r="D478">
         <v>516</v>
       </c>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="I478" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
       <c r="A479">
         <v>4</v>
       </c>
@@ -10175,8 +10706,11 @@
       <c r="D479">
         <v>600</v>
       </c>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="I479" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
       <c r="A480">
         <v>4</v>
       </c>
@@ -10189,8 +10723,11 @@
       <c r="D480">
         <v>545</v>
       </c>
-    </row>
-    <row r="481" spans="1:8">
+      <c r="I480" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
       <c r="A481">
         <v>4</v>
       </c>
@@ -10203,8 +10740,11 @@
       <c r="D481" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="482" spans="1:8">
+      <c r="I481" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
       <c r="A482">
         <v>4</v>
       </c>
@@ -10217,8 +10757,11 @@
       <c r="D482">
         <v>16</v>
       </c>
-    </row>
-    <row r="483" spans="1:8">
+      <c r="I482" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
       <c r="A483">
         <v>4</v>
       </c>
@@ -10243,8 +10786,11 @@
       <c r="H483">
         <v>3</v>
       </c>
-    </row>
-    <row r="484" spans="1:8">
+      <c r="I483" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
       <c r="A484">
         <v>4</v>
       </c>
@@ -10269,8 +10815,11 @@
       <c r="H484">
         <v>7</v>
       </c>
-    </row>
-    <row r="485" spans="1:8">
+      <c r="I484" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
       <c r="A485">
         <v>4</v>
       </c>
@@ -10295,8 +10844,11 @@
       <c r="H485">
         <v>24</v>
       </c>
-    </row>
-    <row r="486" spans="1:8">
+      <c r="I485" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
       <c r="A486">
         <v>4</v>
       </c>
@@ -10321,8 +10873,11 @@
       <c r="H486">
         <v>9</v>
       </c>
-    </row>
-    <row r="487" spans="1:8">
+      <c r="I486" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
       <c r="A487">
         <v>4</v>
       </c>
@@ -10335,8 +10890,11 @@
       <c r="D487">
         <v>507</v>
       </c>
-    </row>
-    <row r="488" spans="1:8">
+      <c r="I487" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
       <c r="A488">
         <v>4</v>
       </c>
@@ -10361,8 +10919,11 @@
       <c r="H488">
         <v>13</v>
       </c>
-    </row>
-    <row r="489" spans="1:8">
+      <c r="I488" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
       <c r="A489">
         <v>4</v>
       </c>
@@ -10387,8 +10948,11 @@
       <c r="H489">
         <v>8</v>
       </c>
-    </row>
-    <row r="490" spans="1:8">
+      <c r="I489" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
       <c r="A490">
         <v>4</v>
       </c>
@@ -10401,8 +10965,11 @@
       <c r="D490">
         <v>84</v>
       </c>
-    </row>
-    <row r="491" spans="1:8">
+      <c r="I490" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
       <c r="A491">
         <v>4</v>
       </c>
@@ -10427,8 +10994,11 @@
       <c r="H491">
         <v>8</v>
       </c>
-    </row>
-    <row r="492" spans="1:8">
+      <c r="I491" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
       <c r="A492">
         <v>4</v>
       </c>
@@ -10453,8 +11023,11 @@
       <c r="H492">
         <v>14</v>
       </c>
-    </row>
-    <row r="493" spans="1:8">
+      <c r="I492" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
       <c r="A493">
         <v>4</v>
       </c>
@@ -10467,8 +11040,11 @@
       <c r="D493">
         <v>122</v>
       </c>
-    </row>
-    <row r="494" spans="1:8">
+      <c r="I493" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
       <c r="A494">
         <v>4</v>
       </c>
@@ -10481,8 +11057,11 @@
       <c r="D494">
         <v>373</v>
       </c>
-    </row>
-    <row r="495" spans="1:8">
+      <c r="I494" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
       <c r="A495">
         <v>4</v>
       </c>
@@ -10495,8 +11074,11 @@
       <c r="D495">
         <v>399</v>
       </c>
-    </row>
-    <row r="496" spans="1:8">
+      <c r="I495" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
       <c r="A496">
         <v>4</v>
       </c>
@@ -10521,8 +11103,11 @@
       <c r="H496">
         <v>3</v>
       </c>
-    </row>
-    <row r="497" spans="1:8">
+      <c r="I496" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
       <c r="A497">
         <v>4</v>
       </c>
@@ -10535,8 +11120,11 @@
       <c r="D497">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:8">
+      <c r="I497" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
       <c r="A498">
         <v>4</v>
       </c>
@@ -10549,8 +11137,11 @@
       <c r="D498">
         <v>40</v>
       </c>
-    </row>
-    <row r="499" spans="1:8">
+      <c r="I498" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
       <c r="A499">
         <v>4</v>
       </c>
@@ -10563,8 +11154,11 @@
       <c r="D499">
         <v>398</v>
       </c>
-    </row>
-    <row r="500" spans="1:8">
+      <c r="I499" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
       <c r="A500">
         <v>4</v>
       </c>
@@ -10577,8 +11171,11 @@
       <c r="D500">
         <v>172</v>
       </c>
-    </row>
-    <row r="501" spans="1:8">
+      <c r="I500" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
       <c r="A501">
         <v>4</v>
       </c>
@@ -10603,8 +11200,11 @@
       <c r="H501">
         <v>5</v>
       </c>
-    </row>
-    <row r="502" spans="1:8">
+      <c r="I501" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
       <c r="A502">
         <v>4</v>
       </c>
@@ -10617,8 +11217,11 @@
       <c r="D502" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="503" spans="1:8">
+      <c r="I502" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
       <c r="A503">
         <v>5</v>
       </c>
@@ -10631,8 +11234,11 @@
       <c r="D503" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="504" spans="1:8">
+      <c r="I503" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
       <c r="A504">
         <v>5</v>
       </c>
@@ -10645,8 +11251,11 @@
       <c r="D504">
         <v>342</v>
       </c>
-    </row>
-    <row r="505" spans="1:8">
+      <c r="I504" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
       <c r="A505">
         <v>5</v>
       </c>
@@ -10659,8 +11268,11 @@
       <c r="D505">
         <v>561</v>
       </c>
-    </row>
-    <row r="506" spans="1:8">
+      <c r="I505" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
       <c r="A506">
         <v>5</v>
       </c>
@@ -10673,8 +11285,11 @@
       <c r="D506" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="507" spans="1:8">
+      <c r="I506" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
       <c r="A507">
         <v>5</v>
       </c>
@@ -10687,8 +11302,11 @@
       <c r="D507">
         <v>336</v>
       </c>
-    </row>
-    <row r="508" spans="1:8">
+      <c r="I507" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
       <c r="A508">
         <v>5</v>
       </c>
@@ -10713,8 +11331,11 @@
       <c r="H508">
         <v>10</v>
       </c>
-    </row>
-    <row r="509" spans="1:8">
+      <c r="I508" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
       <c r="A509">
         <v>5</v>
       </c>
@@ -10727,8 +11348,11 @@
       <c r="D509">
         <v>602</v>
       </c>
-    </row>
-    <row r="510" spans="1:8">
+      <c r="I509" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
       <c r="A510">
         <v>5</v>
       </c>
@@ -10753,8 +11377,11 @@
       <c r="H510">
         <v>17</v>
       </c>
-    </row>
-    <row r="511" spans="1:8">
+      <c r="I510" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
       <c r="A511">
         <v>5</v>
       </c>
@@ -10767,8 +11394,11 @@
       <c r="D511" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="512" spans="1:8">
+      <c r="I511" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
       <c r="A512">
         <v>5</v>
       </c>
@@ -10793,8 +11423,11 @@
       <c r="H512">
         <v>7</v>
       </c>
-    </row>
-    <row r="513" spans="1:8">
+      <c r="I512" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10">
       <c r="A513">
         <v>5</v>
       </c>
@@ -10819,8 +11452,11 @@
       <c r="H513">
         <v>12</v>
       </c>
-    </row>
-    <row r="514" spans="1:8">
+      <c r="I513" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10">
       <c r="A514">
         <v>5</v>
       </c>
@@ -10833,8 +11469,11 @@
       <c r="D514">
         <v>359</v>
       </c>
-    </row>
-    <row r="515" spans="1:8">
+      <c r="I514" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10">
       <c r="A515">
         <v>5</v>
       </c>
@@ -10853,8 +11492,11 @@
       <c r="F515">
         <v>211</v>
       </c>
-    </row>
-    <row r="516" spans="1:8">
+      <c r="I515" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10">
       <c r="A516">
         <v>5</v>
       </c>
@@ -10867,8 +11509,11 @@
       <c r="D516">
         <v>211</v>
       </c>
-    </row>
-    <row r="517" spans="1:8">
+      <c r="I516" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10">
       <c r="A517">
         <v>5</v>
       </c>
@@ -10881,8 +11526,11 @@
       <c r="D517">
         <v>571</v>
       </c>
-    </row>
-    <row r="518" spans="1:8">
+      <c r="I517" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10">
       <c r="A518">
         <v>5</v>
       </c>
@@ -10895,8 +11543,11 @@
       <c r="D518">
         <v>377</v>
       </c>
-    </row>
-    <row r="519" spans="1:8">
+      <c r="I518" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10">
       <c r="A519">
         <v>5</v>
       </c>
@@ -10909,8 +11560,11 @@
       <c r="D519">
         <v>489</v>
       </c>
-    </row>
-    <row r="520" spans="1:8">
+      <c r="I519" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10">
       <c r="A520">
         <v>5</v>
       </c>
@@ -10923,8 +11577,11 @@
       <c r="D520">
         <v>255</v>
       </c>
-    </row>
-    <row r="521" spans="1:8">
+      <c r="I520" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10">
       <c r="A521">
         <v>5</v>
       </c>
@@ -10949,8 +11606,11 @@
       <c r="H521">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:8">
+      <c r="I521" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10">
       <c r="A522">
         <v>5</v>
       </c>
@@ -10963,8 +11623,11 @@
       <c r="D522">
         <v>576</v>
       </c>
-    </row>
-    <row r="523" spans="1:8">
+      <c r="I522" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10">
       <c r="A523">
         <v>5</v>
       </c>
@@ -10977,8 +11640,11 @@
       <c r="D523">
         <v>162</v>
       </c>
-    </row>
-    <row r="524" spans="1:8">
+      <c r="I523" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10">
       <c r="A524">
         <v>5</v>
       </c>
@@ -10991,8 +11657,11 @@
       <c r="D524">
         <v>490</v>
       </c>
-    </row>
-    <row r="525" spans="1:8">
+      <c r="I524" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10">
       <c r="A525">
         <v>5</v>
       </c>
@@ -11017,8 +11686,14 @@
       <c r="H525">
         <v>11</v>
       </c>
-    </row>
-    <row r="526" spans="1:8">
+      <c r="I525" t="s">
+        <v>59</v>
+      </c>
+      <c r="J525" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10">
       <c r="A526">
         <v>5</v>
       </c>
@@ -11031,8 +11706,11 @@
       <c r="D526">
         <v>552</v>
       </c>
-    </row>
-    <row r="527" spans="1:8">
+      <c r="I526" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10">
       <c r="A527">
         <v>5</v>
       </c>
@@ -11045,8 +11723,11 @@
       <c r="D527">
         <v>32</v>
       </c>
-    </row>
-    <row r="528" spans="1:8">
+      <c r="I527" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10">
       <c r="A528">
         <v>5</v>
       </c>
@@ -11059,8 +11740,11 @@
       <c r="D528">
         <v>556</v>
       </c>
-    </row>
-    <row r="529" spans="1:8">
+      <c r="I528" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
       <c r="A529">
         <v>5</v>
       </c>
@@ -11073,8 +11757,11 @@
       <c r="D529">
         <v>555</v>
       </c>
-    </row>
-    <row r="530" spans="1:8">
+      <c r="I529" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
       <c r="A530">
         <v>5</v>
       </c>
@@ -11087,8 +11774,11 @@
       <c r="D530">
         <v>303</v>
       </c>
-    </row>
-    <row r="531" spans="1:8">
+      <c r="I530" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
       <c r="A531">
         <v>5</v>
       </c>
@@ -11101,8 +11791,11 @@
       <c r="D531">
         <v>126</v>
       </c>
-    </row>
-    <row r="532" spans="1:8">
+      <c r="I531" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
       <c r="A532">
         <v>5</v>
       </c>
@@ -11115,8 +11808,11 @@
       <c r="D532">
         <v>67</v>
       </c>
-    </row>
-    <row r="533" spans="1:8">
+      <c r="I532" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
       <c r="A533">
         <v>5</v>
       </c>
@@ -11129,8 +11825,11 @@
       <c r="D533">
         <v>345</v>
       </c>
-    </row>
-    <row r="534" spans="1:8">
+      <c r="I533" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
       <c r="A534">
         <v>5</v>
       </c>
@@ -11143,8 +11842,11 @@
       <c r="D534">
         <v>360</v>
       </c>
-    </row>
-    <row r="535" spans="1:8">
+      <c r="I534" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
       <c r="A535">
         <v>5</v>
       </c>
@@ -11157,8 +11859,11 @@
       <c r="D535">
         <v>129</v>
       </c>
-    </row>
-    <row r="536" spans="1:8">
+      <c r="I535" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
       <c r="A536">
         <v>5</v>
       </c>
@@ -11171,8 +11876,11 @@
       <c r="D536">
         <v>69</v>
       </c>
-    </row>
-    <row r="537" spans="1:8">
+      <c r="I536" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
       <c r="A537">
         <v>5</v>
       </c>
@@ -11185,8 +11893,11 @@
       <c r="D537">
         <v>318</v>
       </c>
-    </row>
-    <row r="538" spans="1:8">
+      <c r="I537" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
       <c r="A538">
         <v>5</v>
       </c>
@@ -11199,8 +11910,11 @@
       <c r="D538">
         <v>452</v>
       </c>
-    </row>
-    <row r="539" spans="1:8">
+      <c r="I538" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
       <c r="A539">
         <v>5</v>
       </c>
@@ -11213,8 +11927,11 @@
       <c r="D539">
         <v>485</v>
       </c>
-    </row>
-    <row r="540" spans="1:8">
+      <c r="I539" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
       <c r="A540">
         <v>5</v>
       </c>
@@ -11227,8 +11944,11 @@
       <c r="D540" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="541" spans="1:8">
+      <c r="I540" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
       <c r="A541">
         <v>5</v>
       </c>
@@ -11241,8 +11961,11 @@
       <c r="D541" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="542" spans="1:8">
+      <c r="I541" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
       <c r="A542">
         <v>5</v>
       </c>
@@ -11267,8 +11990,11 @@
       <c r="H542">
         <v>8</v>
       </c>
-    </row>
-    <row r="543" spans="1:8">
+      <c r="I542" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
       <c r="A543">
         <v>5</v>
       </c>
@@ -11281,8 +12007,11 @@
       <c r="D543" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="544" spans="1:8">
+      <c r="I543" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
       <c r="A544">
         <v>5</v>
       </c>
@@ -11295,8 +12024,11 @@
       <c r="D544">
         <v>298</v>
       </c>
-    </row>
-    <row r="545" spans="1:8">
+      <c r="I544" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
       <c r="A545">
         <v>5</v>
       </c>
@@ -11309,8 +12041,11 @@
       <c r="D545">
         <v>48</v>
       </c>
-    </row>
-    <row r="546" spans="1:8">
+      <c r="I545" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
       <c r="A546">
         <v>5</v>
       </c>
@@ -11335,8 +12070,11 @@
       <c r="H546">
         <v>7</v>
       </c>
-    </row>
-    <row r="547" spans="1:8">
+      <c r="I546" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
       <c r="A547">
         <v>5</v>
       </c>
@@ -11361,8 +12099,11 @@
       <c r="H547">
         <v>5</v>
       </c>
-    </row>
-    <row r="548" spans="1:8">
+      <c r="I547" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
       <c r="A548">
         <v>5</v>
       </c>
@@ -11387,8 +12128,11 @@
       <c r="H548">
         <v>3</v>
       </c>
-    </row>
-    <row r="549" spans="1:8">
+      <c r="I548" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
       <c r="A549">
         <v>5</v>
       </c>
@@ -11401,8 +12145,11 @@
       <c r="D549">
         <v>33</v>
       </c>
-    </row>
-    <row r="550" spans="1:8">
+      <c r="I549" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
       <c r="A550">
         <v>5</v>
       </c>
@@ -11415,8 +12162,11 @@
       <c r="D550">
         <v>26</v>
       </c>
-    </row>
-    <row r="551" spans="1:8">
+      <c r="I550" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
       <c r="A551">
         <v>5</v>
       </c>
@@ -11429,8 +12179,11 @@
       <c r="D551">
         <v>413</v>
       </c>
-    </row>
-    <row r="552" spans="1:8">
+      <c r="I551" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
       <c r="A552">
         <v>5</v>
       </c>
@@ -11443,8 +12196,11 @@
       <c r="D552">
         <v>464</v>
       </c>
-    </row>
-    <row r="553" spans="1:8">
+      <c r="I552" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
       <c r="A553">
         <v>5</v>
       </c>
@@ -11469,8 +12225,11 @@
       <c r="H553">
         <v>8</v>
       </c>
-    </row>
-    <row r="554" spans="1:8">
+      <c r="I553" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
       <c r="A554">
         <v>5</v>
       </c>
@@ -11483,8 +12242,11 @@
       <c r="D554">
         <v>568</v>
       </c>
-    </row>
-    <row r="555" spans="1:8">
+      <c r="I554" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
       <c r="A555">
         <v>5</v>
       </c>
@@ -11497,8 +12259,11 @@
       <c r="D555">
         <v>348</v>
       </c>
-    </row>
-    <row r="556" spans="1:8">
+      <c r="I555" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
       <c r="A556">
         <v>5</v>
       </c>
@@ -11511,8 +12276,11 @@
       <c r="D556">
         <v>558</v>
       </c>
-    </row>
-    <row r="557" spans="1:8">
+      <c r="I556" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
       <c r="A557">
         <v>5</v>
       </c>
@@ -11525,8 +12293,11 @@
       <c r="D557">
         <v>563</v>
       </c>
-    </row>
-    <row r="558" spans="1:8">
+      <c r="I557" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
       <c r="A558">
         <v>5</v>
       </c>
@@ -11538,6 +12309,9 @@
       </c>
       <c r="D558">
         <v>363</v>
+      </c>
+      <c r="I558" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Moities/Bolt_Field_Data_May132020.xlsx
+++ b/Data_Moities/Bolt_Field_Data_May132020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhonor/Documents/R/masters_thesis/Synthesis/Data_Moities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874D925-1FBF-F649-8CEA-EF29B3AD4B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F6B42-38D2-B14B-A91D-8EC083335B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A8DB64A3-4E12-BA4A-A58D-23C912D9DA77}"/>
   </bookViews>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B6C336-9D38-E34F-978B-469DDC35CEF1}">
   <dimension ref="A1:J558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="D483" sqref="D483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10772,7 +10772,7 @@
         <v>25</v>
       </c>
       <c r="D483">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E483">
         <v>15</v>
